--- a/splists_out/panamabiota_species_not_in_garwood.xlsx
+++ b/splists_out/panamabiota_species_not_in_garwood.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D343"/>
+  <dimension ref="A1:D346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2462,17 +2462,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Didymoglossum curtii</t>
+          <t>Desmoncus panamensis</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Didymoglossum curtii</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Trichomanes curtii</t>
+          <t>Desmoncus panamensis</t>
         </is>
       </c>
       <c r="D106" t="b">
@@ -2482,17 +2477,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Didymoglossum membranaceum</t>
+          <t>Didymoglossum curtii</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Didymoglossum membranaceum</t>
+          <t>Didymoglossum curtii</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Trichomanes membranaceum</t>
+          <t>Trichomanes curtii</t>
         </is>
       </c>
       <c r="D107" t="b">
@@ -2502,17 +2497,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Dimerocostus strobilaceus</t>
+          <t>Didymoglossum membranaceum</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Dimerocostus strobilaceus</t>
+          <t>Didymoglossum membranaceum</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Dimerocostus strobilaceus</t>
+          <t>Trichomanes membranaceum</t>
         </is>
       </c>
       <c r="D108" t="b">
@@ -2522,17 +2517,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Dioscorea pubescens</t>
+          <t>Dimerocostus strobilaceus</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Dioscorea pubescens</t>
+          <t>Dimerocostus strobilaceus</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Dioscorea pubescens</t>
+          <t>Dimerocostus strobilaceus</t>
         </is>
       </c>
       <c r="D109" t="b">
@@ -2542,17 +2537,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Diplazium cristatum</t>
+          <t>Dioscorea pubescens</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Diplazium cristatum</t>
+          <t>Dioscorea pubescens</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Diplazium cristatum</t>
+          <t>Dioscorea pubescens</t>
         </is>
       </c>
       <c r="D110" t="b">
@@ -2562,17 +2557,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Disciphania ernstii var. ernstii</t>
+          <t>Diplazium cristatum</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Disciphania ernstii var. ernstii</t>
+          <t>Diplazium cristatum</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Disciphania ernstii var. ernstii</t>
+          <t>Diplazium cristatum</t>
         </is>
       </c>
       <c r="D111" t="b">
@@ -2582,17 +2577,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Doliocarpus dentatus subsp. dentatus</t>
+          <t>Disciphania ernstii var. ernstii</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Doliocarpus dentatus subsp. dentatus</t>
+          <t>Disciphania ernstii var. ernstii</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Doliocarpus dentatus subsp. dentatus</t>
+          <t>Disciphania ernstii var. ernstii</t>
         </is>
       </c>
       <c r="D112" t="b">
@@ -2602,17 +2597,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Drypetes variabilis</t>
+          <t>Doliocarpus dentatus subsp. dentatus</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Drypetes variabilis</t>
+          <t>Doliocarpus dentatus subsp. dentatus</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Drypetes variabilis</t>
+          <t>Doliocarpus dentatus subsp. dentatus</t>
         </is>
       </c>
       <c r="D113" t="b">
@@ -2622,17 +2617,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Elaphoglossum hieracioides</t>
+          <t>Drypetes variabilis</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Elaphoglossum hieracioides</t>
+          <t>Drypetes variabilis</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Elaphoglossum hieracioides</t>
+          <t>Drypetes variabilis</t>
         </is>
       </c>
       <c r="D114" t="b">
@@ -2642,17 +2637,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Eleocharis interstincta</t>
+          <t>Elaphoglossum hieracioides</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Eleocharis interstincta</t>
+          <t>Elaphoglossum hieracioides</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Eleocharis interstincta</t>
+          <t>Elaphoglossum hieracioides</t>
         </is>
       </c>
       <c r="D115" t="b">
@@ -2662,17 +2657,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Eleutheranthera ruderalis</t>
+          <t>Eleocharis interstincta</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Eleutheranthera ruderalis</t>
+          <t>Eleocharis interstincta</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Eleutheranthera ruderalis</t>
+          <t>Eleocharis interstincta</t>
         </is>
       </c>
       <c r="D116" t="b">
@@ -2682,17 +2677,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Emilia sonchifolia var. sonchifolia</t>
+          <t>Eleutheranthera ruderalis</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Emilia sonchifolia var. sonchifolia</t>
+          <t>Eleutheranthera ruderalis</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Emilia sonchifolia var. sonchifolia</t>
+          <t>Eleutheranthera ruderalis</t>
         </is>
       </c>
       <c r="D117" t="b">
@@ -2702,17 +2697,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Encyclia cordigera</t>
+          <t>Emilia sonchifolia var. sonchifolia</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Encyclia cordigera</t>
+          <t>Emilia sonchifolia var. sonchifolia</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Encyclia cordigera</t>
+          <t>Emilia sonchifolia var. sonchifolia</t>
         </is>
       </c>
       <c r="D118" t="b">
@@ -2722,17 +2717,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Entada rheedii</t>
+          <t>Encyclia cordigera</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Entada rheedei</t>
+          <t>Encyclia cordigera</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Entada rheedei</t>
+          <t>Encyclia cordigera</t>
         </is>
       </c>
       <c r="D119" t="b">
@@ -2742,17 +2737,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Eugenia chepensis</t>
+          <t>Entada rheedii</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Eugenia chepensis</t>
+          <t>Entada rheedei</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Eugenia chepensis</t>
+          <t>Entada rheedei</t>
         </is>
       </c>
       <c r="D120" t="b">
@@ -2762,17 +2757,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Eugenia hiraeifolia</t>
+          <t>Eugenia chepensis</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Eugenia hiraeifolia</t>
+          <t>Eugenia chepensis</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Eugenia hiraeifolia</t>
+          <t>Eugenia chepensis</t>
         </is>
       </c>
       <c r="D121" t="b">
@@ -2782,17 +2777,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Eugenia octopleura</t>
+          <t>Eugenia hiraeifolia</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Eugenia octopleura</t>
+          <t>Eugenia hiraeifolia</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Eugenia octopleura</t>
+          <t>Eugenia hiraeifolia</t>
         </is>
       </c>
       <c r="D122" t="b">
@@ -2802,17 +2797,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Eugenia salamensis</t>
+          <t>Eugenia octopleura</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Eugenia salamensis</t>
+          <t>Eugenia octopleura</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Eugenia salamensis</t>
+          <t>Eugenia octopleura</t>
         </is>
       </c>
       <c r="D123" t="b">
@@ -2822,17 +2817,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Ficus americana subsp. americana</t>
+          <t>Eugenia salamensis</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Ficus americana subsp. americana</t>
+          <t>Eugenia salamensis</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Ficus americana subsp. americana</t>
+          <t>Eugenia salamensis</t>
         </is>
       </c>
       <c r="D124" t="b">
@@ -2842,17 +2837,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Ficus crassinervia</t>
+          <t>Ficus americana subsp. americana</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Ficus crassinervia</t>
+          <t>Ficus americana subsp. americana</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Ficus crassinervia</t>
+          <t>Ficus americana subsp. americana</t>
         </is>
       </c>
       <c r="D125" t="b">
@@ -2862,17 +2857,17 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Ficus crassiuscula</t>
+          <t>Ficus crassinervia</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Ficus crassiuscula</t>
+          <t>Ficus crassinervia</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Ficus crassiuscula</t>
+          <t>Ficus crassinervia</t>
         </is>
       </c>
       <c r="D126" t="b">
@@ -2882,17 +2877,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Ficus hartwegii</t>
+          <t>Ficus crassiuscula</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Ficus hartwegii</t>
+          <t>Ficus crassiuscula</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Ficus hartwegii</t>
+          <t>Ficus crassiuscula</t>
         </is>
       </c>
       <c r="D127" t="b">
@@ -2902,17 +2897,17 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Fissicalyx fendleri</t>
+          <t>Ficus hartwegii</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Fissicalyx fendleri</t>
+          <t>Ficus hartwegii</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Fissicalyx fendleri</t>
+          <t>Ficus hartwegii</t>
         </is>
       </c>
       <c r="D128" t="b">
@@ -2922,17 +2917,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Forsteronia spicata</t>
+          <t>Fissicalyx fendleri</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Forsteronia spicata</t>
+          <t>Fissicalyx fendleri</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Forsteronia spicata</t>
+          <t>Fissicalyx fendleri</t>
         </is>
       </c>
       <c r="D129" t="b">
@@ -2942,17 +2937,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Fridericia japurensis</t>
+          <t>Forsteronia spicata</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Fridericia japurensis</t>
+          <t>Forsteronia spicata</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Fridericia japurensis</t>
+          <t>Forsteronia spicata</t>
         </is>
       </c>
       <c r="D130" t="b">
@@ -2962,17 +2957,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Geonoma cuneata subsp. indivisa</t>
+          <t>Fridericia japurensis</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Geonoma cuneata subsp. indivisa</t>
+          <t>Fridericia japurensis</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Geonoma cuneata subsp. indivisa</t>
+          <t>Fridericia japurensis</t>
         </is>
       </c>
       <c r="D131" t="b">
@@ -2982,17 +2977,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Geonoma cuneata var. cuneata</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Geonoma cuneata subsp. cuneata</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Geonoma cuneata subsp. cuneata</t>
+          <t>Garcinia recondita</t>
         </is>
       </c>
       <c r="D132" t="b">
@@ -3002,17 +2987,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Geonoma interrupta</t>
+          <t>Geonoma cuneata subsp. indivisa</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Geonoma interrupta</t>
+          <t>Geonoma cuneata subsp. indivisa</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Geonoma interrupta</t>
+          <t>Geonoma cuneata subsp. indivisa</t>
         </is>
       </c>
       <c r="D133" t="b">
@@ -3022,17 +3007,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Geonoma interrupta subsp. magnifica</t>
+          <t>Geonoma cuneata var. cuneata</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Geonoma interrupta subsp. magnifica</t>
+          <t>Geonoma cuneata subsp. cuneata</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Geonoma interrupta subsp. magnifica</t>
+          <t>Geonoma cuneata subsp. cuneata</t>
         </is>
       </c>
       <c r="D134" t="b">
@@ -3042,17 +3027,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Geonoma pinnatifrons</t>
+          <t>Geonoma interrupta</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Geonoma pinnatifrons</t>
+          <t>Geonoma interrupta</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Geonoma pinnatifrons</t>
+          <t>Geonoma interrupta</t>
         </is>
       </c>
       <c r="D135" t="b">
@@ -3062,17 +3047,17 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Geonoma pinnatifrons subsp. binervia</t>
+          <t>Geonoma interrupta subsp. magnifica</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Geonoma pinnatifrons subsp. binervia</t>
+          <t>Geonoma interrupta subsp. magnifica</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Geonoma pinnatifrons subsp. binervia</t>
+          <t>Geonoma interrupta subsp. magnifica</t>
         </is>
       </c>
       <c r="D136" t="b">
@@ -3082,17 +3067,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Gliricidia sepium</t>
+          <t>Geonoma pinnatifrons</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Gliricidia sepium</t>
+          <t>Geonoma pinnatifrons</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Gliricidia sepium</t>
+          <t>Geonoma pinnatifrons</t>
         </is>
       </c>
       <c r="D137" t="b">
@@ -3102,17 +3087,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Gongora pleiochroma</t>
+          <t>Geonoma pinnatifrons subsp. binervia</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Gongora pleiochroma</t>
+          <t>Geonoma pinnatifrons subsp. binervia</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Gongora pleiochroma</t>
+          <t>Geonoma pinnatifrons subsp. binervia</t>
         </is>
       </c>
       <c r="D138" t="b">
@@ -3122,17 +3107,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Gonolobus inaequalis</t>
+          <t>Gliricidia sepium</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Gonolobus inaequalis</t>
+          <t>Gliricidia sepium</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Gonolobus inaequalis</t>
+          <t>Gliricidia sepium</t>
         </is>
       </c>
       <c r="D139" t="b">
@@ -3142,17 +3127,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Gouania croatii</t>
+          <t>Gongora pleiochroma</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Gouania croatii</t>
+          <t>Gongora pleiochroma</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Gouania croatii</t>
+          <t>Gongora pleiochroma</t>
         </is>
       </c>
       <c r="D140" t="b">
@@ -3162,17 +3147,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Guadua amplexifolia</t>
+          <t>Gonolobus inaequalis</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Guadua amplexifolia</t>
+          <t>Gonolobus inaequalis</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Guadua amplexifolia</t>
+          <t>Gonolobus inaequalis</t>
         </is>
       </c>
       <c r="D141" t="b">
@@ -3182,17 +3167,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Guapira costaricana</t>
+          <t>Gouania croatii</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Guapira costaricana</t>
+          <t>Gouania croatii</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Guapira costaricana</t>
+          <t>Gouania croatii</t>
         </is>
       </c>
       <c r="D142" t="b">
@@ -3202,17 +3187,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Guarea kunthiana</t>
+          <t>Guadua amplexifolia</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Guarea kunthiana</t>
+          <t>Guadua amplexifolia</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Guarea kunthiana</t>
+          <t>Guadua amplexifolia</t>
         </is>
       </c>
       <c r="D143" t="b">
@@ -3222,17 +3207,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Guarea tonduzii</t>
+          <t>Guapira costaricana</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Guarea tonduzii</t>
+          <t>Guapira costaricana</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Guarea tonduzii</t>
+          <t>Guapira costaricana</t>
         </is>
       </c>
       <c r="D144" t="b">
@@ -3242,17 +3227,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Guarianthe skinneri</t>
+          <t>Guarea kunthiana</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Guarianthe skinneri</t>
+          <t>Guarea kunthiana</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Guarianthe skinneri</t>
+          <t>Guarea kunthiana</t>
         </is>
       </c>
       <c r="D145" t="b">
@@ -3262,17 +3247,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Guazuma invira</t>
+          <t>Guarea tonduzii</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Guazuma invira</t>
+          <t>Guarea tonduzii</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Guazuma invira</t>
+          <t>Guarea tonduzii</t>
         </is>
       </c>
       <c r="D146" t="b">
@@ -3282,17 +3267,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Guazuma ulmifolia var. tomentella</t>
+          <t>Guarianthe skinneri</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Guazuma ulmifolia var. tomentella</t>
+          <t>Guarianthe skinneri</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Guazuma invira</t>
+          <t>Guarianthe skinneri</t>
         </is>
       </c>
       <c r="D147" t="b">
@@ -3302,17 +3287,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Gustavia angustifolia</t>
+          <t>Guazuma invira</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Gustavia angustifolia</t>
+          <t>Guazuma invira</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Gustavia angustifolia</t>
+          <t>Guazuma invira</t>
         </is>
       </c>
       <c r="D148" t="b">
@@ -3322,17 +3307,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Guzmania lingulata var. concolor</t>
+          <t>Guazuma ulmifolia var. tomentella</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Guzmania lingulata var. concolor</t>
+          <t>Guazuma ulmifolia var. tomentella</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Guzmania lingulata var. minor</t>
+          <t>Guazuma invira</t>
         </is>
       </c>
       <c r="D149" t="b">
@@ -3342,17 +3327,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Habenaria trifida</t>
+          <t>Gustavia angustifolia</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Habenaria trifida</t>
+          <t>Gustavia angustifolia</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Habenaria trifida</t>
+          <t>Gustavia angustifolia</t>
         </is>
       </c>
       <c r="D150" t="b">
@@ -3362,17 +3347,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Hampea albipetala</t>
+          <t>Guzmania lingulata var. concolor</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Hampea albipetala</t>
+          <t>Guzmania lingulata var. concolor</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Hampea albipetala</t>
+          <t>Guzmania lingulata var. minor</t>
         </is>
       </c>
       <c r="D151" t="b">
@@ -3382,17 +3367,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Handroanthus ochraceus</t>
+          <t>Habenaria trifida</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Handroanthus ochraceus</t>
+          <t>Habenaria trifida</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Handroanthus ochraceus</t>
+          <t>Habenaria trifida</t>
         </is>
       </c>
       <c r="D152" t="b">
@@ -3402,17 +3387,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Heisteria acuminata</t>
+          <t>Hampea albipetala</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Heisteria acuminata</t>
+          <t>Hampea albipetala</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Heisteria acuminata</t>
+          <t>Hampea albipetala</t>
         </is>
       </c>
       <c r="D153" t="b">
@@ -3422,17 +3407,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Heisteria scandens</t>
+          <t>Handroanthus ochraceus</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Heisteria scandens</t>
+          <t>Handroanthus ochraceus</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Heisteria scandens</t>
+          <t>Handroanthus ochraceus</t>
         </is>
       </c>
       <c r="D154" t="b">
@@ -3442,17 +3427,17 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Heliconia psittacorum</t>
+          <t>Heisteria acuminata</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Heliconia psittacorum</t>
+          <t>Heisteria acuminata</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Heliconia psittacorum</t>
+          <t>Heisteria acuminata</t>
         </is>
       </c>
       <c r="D155" t="b">
@@ -3462,17 +3447,17 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Heliconia subulata</t>
+          <t>Heisteria scandens</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Heliconia subulata</t>
+          <t>Heisteria scandens</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Heliconia subulata</t>
+          <t>Heisteria scandens</t>
         </is>
       </c>
       <c r="D156" t="b">
@@ -3482,17 +3467,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Heteropterys laurifolia</t>
+          <t>Heliconia psittacorum</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Heteropterys laurifolia</t>
+          <t>Heliconia psittacorum</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Heteropterys laurifolia</t>
+          <t>Heliconia psittacorum</t>
         </is>
       </c>
       <c r="D157" t="b">
@@ -3502,17 +3487,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Hiraea fagifolia</t>
+          <t>Heliconia subulata</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Hiraea fagifolia</t>
+          <t>Heliconia subulata</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Hiraea fagifolia</t>
+          <t>Heliconia subulata</t>
         </is>
       </c>
       <c r="D158" t="b">
@@ -3522,17 +3507,17 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Hiraea grandifolia</t>
+          <t>Heteropterys laurifolia</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Hiraea grandifolia</t>
+          <t>Heteropterys laurifolia</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Hiraea grandifolia</t>
+          <t>Heteropterys laurifolia</t>
         </is>
       </c>
       <c r="D159" t="b">
@@ -3542,17 +3527,17 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Hirtella racemosa</t>
+          <t>Hiraea fagifolia</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Hirtella racemosa</t>
+          <t>Hiraea fagifolia</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Hirtella racemosa</t>
+          <t>Hiraea fagifolia</t>
         </is>
       </c>
       <c r="D160" t="b">
@@ -3562,17 +3547,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Hirtella triandra</t>
+          <t>Hiraea grandifolia</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Hirtella triandra</t>
+          <t>Hiraea grandifolia</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Hirtella triandra</t>
+          <t>Hiraea grandifolia</t>
         </is>
       </c>
       <c r="D161" t="b">
@@ -3582,17 +3567,17 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Hoffmannia longipetiolata</t>
+          <t>Hirtella racemosa</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Hoffmannia longepetiolata</t>
+          <t>Hirtella racemosa</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Hoffmannia longepetiolata</t>
+          <t>Hirtella racemosa</t>
         </is>
       </c>
       <c r="D162" t="b">
@@ -3602,17 +3587,17 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Hypolytrum longifolium</t>
+          <t>Hirtella triandra</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Hypolytrum longifolium</t>
+          <t>Hirtella triandra</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Hypolytrum longifolium</t>
+          <t>Hirtella triandra</t>
         </is>
       </c>
       <c r="D163" t="b">
@@ -3622,17 +3607,17 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Ichnanthus pallens</t>
+          <t>Hoffmannia longipetiolata</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Ichnanthus pallens</t>
+          <t>Hoffmannia longepetiolata</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Ichnanthus pallens</t>
+          <t>Hoffmannia longepetiolata</t>
         </is>
       </c>
       <c r="D164" t="b">
@@ -3642,17 +3627,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Imperata contracta</t>
+          <t>Hypolytrum longifolium</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Imperata contracta</t>
+          <t>Hypolytrum longifolium</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Imperata contracta</t>
+          <t>Hypolytrum longifolium</t>
         </is>
       </c>
       <c r="D165" t="b">
@@ -3662,17 +3647,17 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Indigofera trita</t>
+          <t>Ichnanthus pallens</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Indigofera trita</t>
+          <t>Ichnanthus pallens</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Indigofera trita</t>
+          <t>Ichnanthus pallens</t>
         </is>
       </c>
       <c r="D166" t="b">
@@ -3682,17 +3667,17 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Inga alba</t>
+          <t>Imperata contracta</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Inga alba</t>
+          <t>Imperata contracta</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Inga alba</t>
+          <t>Imperata contracta</t>
         </is>
       </c>
       <c r="D167" t="b">
@@ -3702,17 +3687,17 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Inga coruscans</t>
+          <t>Indigofera trita</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Inga coruscans</t>
+          <t>Indigofera trita</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Inga coruscans</t>
+          <t>Indigofera trita</t>
         </is>
       </c>
       <c r="D168" t="b">
@@ -3722,17 +3707,17 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Inga edulis</t>
+          <t>Inga alba</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Inga edulis</t>
+          <t>Inga alba</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Inga edulis</t>
+          <t>Inga alba</t>
         </is>
       </c>
       <c r="D169" t="b">
@@ -3742,17 +3727,17 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Inga multijuga</t>
+          <t>Inga coruscans</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Inga multijuga</t>
+          <t>Inga coruscans</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Inga multijuga</t>
+          <t>Inga coruscans</t>
         </is>
       </c>
       <c r="D170" t="b">
@@ -3762,17 +3747,17 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Inga nobilis</t>
+          <t>Inga edulis</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Inga nobilis</t>
+          <t>Inga edulis</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Inga nobilis</t>
+          <t>Inga edulis</t>
         </is>
       </c>
       <c r="D171" t="b">
@@ -3782,17 +3767,17 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Inga thibaudiana</t>
+          <t>Inga multijuga</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Inga thibaudiana</t>
+          <t>Inga multijuga</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Inga thibaudiana</t>
+          <t>Inga multijuga</t>
         </is>
       </c>
       <c r="D172" t="b">
@@ -3802,17 +3787,17 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Ipomoea anisomeres</t>
+          <t>Inga nobilis</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Ipomoea anisomeres</t>
+          <t>Inga nobilis</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Ipomoea anisomeres</t>
+          <t>Inga nobilis</t>
         </is>
       </c>
       <c r="D173" t="b">
@@ -3822,17 +3807,17 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Ischnosiphon arouma</t>
+          <t>Inga thibaudiana</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Ischnosiphon arouma</t>
+          <t>Inga thibaudiana</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Ischnosiphon arouma</t>
+          <t>Inga thibaudiana</t>
         </is>
       </c>
       <c r="D174" t="b">
@@ -3842,17 +3827,17 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Ischnosiphon leucophaeus</t>
+          <t>Ipomoea anisomeres</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Ischnosiphon leucophaeus</t>
+          <t>Ipomoea anisomeres</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Ischnosiphon leucophaeus</t>
+          <t>Ipomoea anisomeres</t>
         </is>
       </c>
       <c r="D175" t="b">
@@ -3862,17 +3847,17 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Isertia haenkeana var. haenkeana</t>
+          <t>Ischnosiphon arouma</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Isertia haenkeana var. haenkeana</t>
+          <t>Ischnosiphon arouma</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Isertia haenkeana var. haenkeana</t>
+          <t>Ischnosiphon arouma</t>
         </is>
       </c>
       <c r="D176" t="b">
@@ -3882,17 +3867,17 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Ixora coccinea var. coccinea</t>
+          <t>Ischnosiphon leucophaeus</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Ixora coccinea var. coccinea</t>
+          <t>Ischnosiphon leucophaeus</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Ixora coccinea var. coccinea</t>
+          <t>Ischnosiphon leucophaeus</t>
         </is>
       </c>
       <c r="D177" t="b">
@@ -3902,17 +3887,17 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Jacaranda copaia</t>
+          <t>Isertia haenkeana var. haenkeana</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Jacaranda copaia</t>
+          <t>Isertia haenkeana var. haenkeana</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Jacaranda copaia</t>
+          <t>Isertia haenkeana var. haenkeana</t>
         </is>
       </c>
       <c r="D178" t="b">
@@ -3922,17 +3907,17 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Justicia secunda</t>
+          <t>Ixora coccinea var. coccinea</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Justicia secunda</t>
+          <t>Ixora coccinea var. coccinea</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Dianthera secunda</t>
+          <t>Ixora coccinea var. coccinea</t>
         </is>
       </c>
       <c r="D179" t="b">
@@ -3942,17 +3927,17 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Klarobelia anomala</t>
+          <t>Jacaranda copaia</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Klarobelia anomala</t>
+          <t>Jacaranda copaia</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Klarobelia anomala</t>
+          <t>Jacaranda copaia</t>
         </is>
       </c>
       <c r="D180" t="b">
@@ -3962,17 +3947,17 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Kyllinga</t>
+          <t>Justicia secunda</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Kyllinga</t>
+          <t>Justicia secunda</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Cyperus</t>
+          <t>Dianthera secunda</t>
         </is>
       </c>
       <c r="D181" t="b">
@@ -3982,17 +3967,17 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Kyllinga brevifolia var. leiolepis</t>
+          <t>Klarobelia anomala</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Kyllinga brevifolia var. leiolepis</t>
+          <t>Klarobelia anomala</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Cyperus brevifolioides</t>
+          <t>Klarobelia anomala</t>
         </is>
       </c>
       <c r="D182" t="b">
@@ -4002,17 +3987,17 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Lantana hispida</t>
+          <t>Kyllinga</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Lantana hispida</t>
+          <t>Kyllinga</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Lantana horrida subsp. horrida</t>
+          <t>Cyperus</t>
         </is>
       </c>
       <c r="D183" t="b">
@@ -4022,17 +4007,17 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Lantana horrida</t>
+          <t>Kyllinga brevifolia var. leiolepis</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Lantana horrida</t>
+          <t>Kyllinga brevifolia var. leiolepis</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Lantana horrida</t>
+          <t>Cyperus brevifolioides</t>
         </is>
       </c>
       <c r="D184" t="b">
@@ -4042,12 +4027,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Lantana horrida subsp. horrida</t>
+          <t>Lantana hispida</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Lantana horrida subsp. horrida</t>
+          <t>Lantana hispida</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -4062,17 +4047,17 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Lantana scabrida</t>
+          <t>Lantana horrida</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Lantana scabrida</t>
+          <t>Lantana horrida</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Lantana scabrida</t>
+          <t>Lantana horrida</t>
         </is>
       </c>
       <c r="D186" t="b">
@@ -4082,17 +4067,17 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Lantana strigocamara</t>
+          <t>Lantana horrida subsp. horrida</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Lantana × strigocamara</t>
+          <t>Lantana horrida subsp. horrida</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Lantana strigocamara</t>
+          <t>Lantana horrida subsp. horrida</t>
         </is>
       </c>
       <c r="D187" t="b">
@@ -4102,17 +4087,17 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Lasiacis oaxacensis</t>
+          <t>Lantana scabrida</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Lasiacis oaxacensis</t>
+          <t>Lantana scabrida</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Lasiacis oaxacensis</t>
+          <t>Lantana scabrida</t>
         </is>
       </c>
       <c r="D188" t="b">
@@ -4122,17 +4107,17 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Leandra granatensis</t>
+          <t>Lantana strigocamara</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Leandra granatensis</t>
+          <t>Lantana × strigocamara</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Miconia granatensis</t>
+          <t>Lantana strigocamara</t>
         </is>
       </c>
       <c r="D189" t="b">
@@ -4142,17 +4127,17 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Leucaena trichodes</t>
+          <t>Lasiacis oaxacensis</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Leucaena trichodes</t>
+          <t>Lasiacis oaxacensis</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Leucaena trichodes</t>
+          <t>Lasiacis oaxacensis</t>
         </is>
       </c>
       <c r="D190" t="b">
@@ -4162,17 +4147,17 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Lindsaea stricta</t>
+          <t>Leandra granatensis</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Lindsaea stricta</t>
+          <t>Leandra granatensis</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Lindsaea stricta</t>
+          <t>Miconia granatensis</t>
         </is>
       </c>
       <c r="D191" t="b">
@@ -4182,17 +4167,17 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Lindsaea stricta var. stricta</t>
+          <t>Leucaena trichodes</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Lindsaea stricta var. stricta</t>
+          <t>Leucaena trichodes</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Lindsaea stricta var. stricta</t>
+          <t>Leucaena trichodes</t>
         </is>
       </c>
       <c r="D192" t="b">
@@ -4202,17 +4187,17 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Lockhartia micrantha</t>
+          <t>Lindsaea stricta</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Lockhartia micrantha</t>
+          <t>Lindsaea stricta</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Lockhartia micrantha</t>
+          <t>Lindsaea stricta</t>
         </is>
       </c>
       <c r="D193" t="b">
@@ -4222,17 +4207,17 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Lockhartia oerstedii</t>
+          <t>Lindsaea stricta var. stricta</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Lockhartia oerstedii</t>
+          <t>Lindsaea stricta var. stricta</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Lockhartia oerstedii</t>
+          <t>Lindsaea stricta var. stricta</t>
         </is>
       </c>
       <c r="D194" t="b">
@@ -4242,17 +4227,17 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Ludwigia erecta</t>
+          <t>Lockhartia micrantha</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Ludwigia erecta</t>
+          <t>Lockhartia micrantha</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Ludwigia erecta</t>
+          <t>Lockhartia micrantha</t>
         </is>
       </c>
       <c r="D195" t="b">
@@ -4262,17 +4247,17 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Luffa cylindrica</t>
+          <t>Lockhartia oerstedii</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Luffa cylindrica</t>
+          <t>Lockhartia oerstedii</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Cucumis melo</t>
+          <t>Lockhartia oerstedii</t>
         </is>
       </c>
       <c r="D196" t="b">
@@ -4282,17 +4267,17 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Luziola subintegra</t>
+          <t>Ludwigia erecta</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Luziola subintegra</t>
+          <t>Ludwigia erecta</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Luziola subintegra</t>
+          <t>Ludwigia erecta</t>
         </is>
       </c>
       <c r="D197" t="b">
@@ -4302,17 +4287,17 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Lycianthes maxonii var. maxonii</t>
+          <t>Luffa cylindrica</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Lycianthes maxonii var. maxonii</t>
+          <t>Luffa cylindrica</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Lycianthes maxonii var. maxonii</t>
+          <t>Cucumis melo</t>
         </is>
       </c>
       <c r="D198" t="b">
@@ -4322,17 +4307,17 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Machaerium floribundum</t>
+          <t>Luziola subintegra</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Machaerium floribundum</t>
+          <t>Luziola subintegra</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Machaerium floribundum</t>
+          <t>Luziola subintegra</t>
         </is>
       </c>
       <c r="D199" t="b">
@@ -4342,17 +4327,17 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Malouetia quadricasarum</t>
+          <t>Lycianthes maxonii var. maxonii</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Malouetia quadricasarum</t>
+          <t>Lycianthes maxonii var. maxonii</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Malouetia quadricasarum</t>
+          <t>Lycianthes maxonii var. maxonii</t>
         </is>
       </c>
       <c r="D200" t="b">
@@ -4362,17 +4347,17 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Mansoa hymenaea</t>
+          <t>Machaerium floribundum</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Mansoa hymenaea</t>
+          <t>Machaerium floribundum</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Mansoa hymenaea</t>
+          <t>Machaerium floribundum</t>
         </is>
       </c>
       <c r="D201" t="b">
@@ -4382,17 +4367,17 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Maquira guianensis</t>
+          <t>Malouetia quadricasarum</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Maquira guianensis</t>
+          <t>Malouetia quadricasarum</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Maquira guianensis</t>
+          <t>Malouetia quadricasarum</t>
         </is>
       </c>
       <c r="D202" t="b">
@@ -4402,17 +4387,17 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Maripa nicaraguensis</t>
+          <t>Mansoa hymenaea</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Maripa nicaraguensis</t>
+          <t>Mansoa hymenaea</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Maripa nicaraguensis</t>
+          <t>Mansoa hymenaea</t>
         </is>
       </c>
       <c r="D203" t="b">
@@ -4422,17 +4407,17 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Masdevallia rolfeana</t>
+          <t>Maquira guianensis</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Masdevallia rolfeana</t>
+          <t>Maquira guianensis</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Masdevallia rolfeana</t>
+          <t>Maquira guianensis</t>
         </is>
       </c>
       <c r="D204" t="b">
@@ -4442,17 +4427,17 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Matayba scrobiculata</t>
+          <t>Maripa nicaraguensis</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Matayba scrobiculata</t>
+          <t>Maripa nicaraguensis</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Matayba scrobiculata</t>
+          <t>Maripa nicaraguensis</t>
         </is>
       </c>
       <c r="D205" t="b">
@@ -4462,17 +4447,17 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Matayba sylvatica</t>
+          <t>Masdevallia rolfeana</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Matayba sylvatica</t>
+          <t>Masdevallia rolfeana</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Matayba sylvatica</t>
+          <t>Masdevallia rolfeana</t>
         </is>
       </c>
       <c r="D206" t="b">
@@ -4482,17 +4467,17 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Melochia nodiflora</t>
+          <t>Matayba scrobiculata</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Melochia nodiflora</t>
+          <t>Matayba scrobiculata</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Melochia nodiflora</t>
+          <t>Matayba scrobiculata</t>
         </is>
       </c>
       <c r="D207" t="b">
@@ -4502,17 +4487,17 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Miconia barbinervis</t>
+          <t>Matayba sylvatica</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Miconia barbinervis</t>
+          <t>Matayba sylvatica</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Miconia barbinervis</t>
+          <t>Matayba sylvatica</t>
         </is>
       </c>
       <c r="D208" t="b">
@@ -4522,17 +4507,17 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Miconia bubalina</t>
+          <t>Melochia nodiflora</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Miconia bubalina</t>
+          <t>Melochia nodiflora</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Miconia bubalina</t>
+          <t>Melochia nodiflora</t>
         </is>
       </c>
       <c r="D209" t="b">
@@ -4542,17 +4527,17 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Miconia impetiolaris</t>
+          <t>Miconia barbinervis</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Miconia impetiolaris</t>
+          <t>Miconia barbinervis</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Miconia impetiolaris</t>
+          <t>Miconia barbinervis</t>
         </is>
       </c>
       <c r="D210" t="b">
@@ -4562,17 +4547,17 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Miconia rubescens</t>
+          <t>Miconia bubalina</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Miconia rubescens</t>
+          <t>Miconia bubalina</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Miconia rubescens</t>
+          <t>Miconia bubalina</t>
         </is>
       </c>
       <c r="D211" t="b">
@@ -4582,17 +4567,17 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Miconia spicata</t>
+          <t>Miconia impetiolaris</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Miconia spicata</t>
+          <t>Miconia impetiolaris</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Miconia spicata</t>
+          <t>Miconia impetiolaris</t>
         </is>
       </c>
       <c r="D212" t="b">
@@ -4602,17 +4587,17 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Microgramma mauritiana</t>
+          <t>Miconia rubescens</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Microgramma mauritiana</t>
+          <t>Miconia rubescens</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Microgramma mauritiana</t>
+          <t>Miconia rubescens</t>
         </is>
       </c>
       <c r="D213" t="b">
@@ -4622,17 +4607,17 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Mikania psilostachya</t>
+          <t>Miconia spicata</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Mikania psilostachya</t>
+          <t>Miconia spicata</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Mikania psilostachya</t>
+          <t>Miconia spicata</t>
         </is>
       </c>
       <c r="D214" t="b">
@@ -4642,17 +4627,17 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Mimosa pigra var. pigra</t>
+          <t>Microgramma mauritiana</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Mimosa pigra var. pigra</t>
+          <t>Microgramma mauritiana</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Mimosa pigra var. pigra</t>
+          <t>Microgramma mauritiana</t>
         </is>
       </c>
       <c r="D215" t="b">
@@ -4662,17 +4647,17 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Mimosa pudica</t>
+          <t>Mikania psilostachya</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Mimosa pudica</t>
+          <t>Mikania psilostachya</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Mimosa pudica</t>
+          <t>Mikania psilostachya</t>
         </is>
       </c>
       <c r="D216" t="b">
@@ -4682,17 +4667,17 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Monstera adansonii</t>
+          <t>Mimosa pigra var. pigra</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Monstera adansonii</t>
+          <t>Mimosa pigra var. pigra</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Monstera adansonii</t>
+          <t>Mimosa pigra var. pigra</t>
         </is>
       </c>
       <c r="D217" t="b">
@@ -4702,17 +4687,17 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Monteverdia sieberiana</t>
+          <t>Mimosa pudica</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Monteverdia sieberiana</t>
+          <t>Mimosa pudica</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Maytenus sieberiana</t>
+          <t>Mimosa pudica</t>
         </is>
       </c>
       <c r="D218" t="b">
@@ -4722,17 +4707,17 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Mouriri myrtilloides</t>
+          <t>Monstera adansonii</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Mouriri myrtilloides</t>
+          <t>Monstera adansonii</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Mouriri myrtilloides</t>
+          <t>Monstera adansonii</t>
         </is>
       </c>
       <c r="D219" t="b">
@@ -4742,17 +4727,17 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Mucuna urens</t>
+          <t>Monteverdia sieberiana</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Mucuna urens</t>
+          <t>Monteverdia sieberiana</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Mucuna urens</t>
+          <t>Maytenus sieberiana</t>
         </is>
       </c>
       <c r="D220" t="b">
@@ -4762,17 +4747,17 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Musa paradisiaca</t>
+          <t>Mouriri myrtilloides</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Musa × paradisiaca</t>
+          <t>Mouriri myrtilloides</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Musa paradisiaca</t>
+          <t>Mouriri myrtilloides</t>
         </is>
       </c>
       <c r="D221" t="b">
@@ -4782,17 +4767,17 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Nectandra latifolia</t>
+          <t>Mucuna urens</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Nectandra latifolia</t>
+          <t>Mucuna urens</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Damburneya purpurea</t>
+          <t>Mucuna urens</t>
         </is>
       </c>
       <c r="D222" t="b">
@@ -4802,17 +4787,17 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Nectandra martinicensis</t>
+          <t>Musa paradisiaca</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Nectandra martinicensis</t>
+          <t>Musa × paradisiaca</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Damburneya martinicensis</t>
+          <t>Musa paradisiaca</t>
         </is>
       </c>
       <c r="D223" t="b">
@@ -4822,17 +4807,17 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Neea pittieri</t>
+          <t>Nectandra latifolia</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Neea pittieri</t>
+          <t>Nectandra latifolia</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Neea pittieri</t>
+          <t>Damburneya purpurea</t>
         </is>
       </c>
       <c r="D224" t="b">
@@ -4842,17 +4827,17 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Nephrolepis obtusiloba</t>
+          <t>Nectandra martinicensis</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Nephrolepis obtusiloba</t>
+          <t>Nectandra martinicensis</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Nephrolepis obtusiloba</t>
+          <t>Damburneya martinicensis</t>
         </is>
       </c>
       <c r="D225" t="b">
@@ -4862,17 +4847,17 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Odonellia hirtiflora</t>
+          <t>Neea pittieri</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Odonellia hirtiflora</t>
+          <t>Neea pittieri</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Odonellia hirtiflora</t>
+          <t>Neea pittieri</t>
         </is>
       </c>
       <c r="D226" t="b">
@@ -4882,17 +4867,17 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Odontocarya tamoides</t>
+          <t>Nephrolepis obtusiloba</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Odontocarya tamoides</t>
+          <t>Nephrolepis obtusiloba</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Odontocarya tamoides</t>
+          <t>Nephrolepis obtusiloba</t>
         </is>
       </c>
       <c r="D227" t="b">
@@ -4902,17 +4887,17 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Oncidium sphacelatum</t>
+          <t>Odonellia hirtiflora</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Oncidium sphacelatum</t>
+          <t>Odonellia hirtiflora</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Oncidium sphacelatum</t>
+          <t>Odonellia hirtiflora</t>
         </is>
       </c>
       <c r="D228" t="b">
@@ -4922,17 +4907,17 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Oncidium stenotis</t>
+          <t>Odontocarya tamoides</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Oncidium stenotis</t>
+          <t>Odontocarya tamoides</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Oncidium lineoligerum</t>
+          <t>Odontocarya tamoides</t>
         </is>
       </c>
       <c r="D229" t="b">
@@ -4942,17 +4927,17 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Ormosia coccinea var. subsimplex</t>
+          <t>Oncidium sphacelatum</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Ormosia coccinea var. subsimplex</t>
+          <t>Oncidium sphacelatum</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Ormosia subsimplex</t>
+          <t>Oncidium sphacelatum</t>
         </is>
       </c>
       <c r="D230" t="b">
@@ -4962,17 +4947,17 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Oryctanthus callicarpus</t>
+          <t>Oncidium stenotis</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Oryctanthus callicarpus</t>
+          <t>Oncidium stenotis</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Oryctanthus callicarpus</t>
+          <t>Oncidium lineoligerum</t>
         </is>
       </c>
       <c r="D231" t="b">
@@ -4982,17 +4967,17 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Oryza sativa</t>
+          <t>Ormosia coccinea var. subsimplex</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Oryza sativa</t>
+          <t>Ormosia coccinea var. subsimplex</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Oryza sativa</t>
+          <t>Ormosia subsimplex</t>
         </is>
       </c>
       <c r="D232" t="b">
@@ -5002,17 +4987,17 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Pachyrhizus ferrugineus</t>
+          <t>Oryctanthus callicarpus</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Pachyrhizus ferrugineus</t>
+          <t>Oryctanthus callicarpus</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Pachyrhizus ferrugineus</t>
+          <t>Oryctanthus callicarpus</t>
         </is>
       </c>
       <c r="D233" t="b">
@@ -5022,17 +5007,17 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Palicourea cuspidata</t>
+          <t>Oryza sativa</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Palicourea cuspidata</t>
+          <t>Oryza sativa</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Palicourea cuspidata</t>
+          <t>Oryza sativa</t>
         </is>
       </c>
       <c r="D234" t="b">
@@ -5042,17 +5027,17 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Panicum altum</t>
+          <t>Pachyrhizus ferrugineus</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Panicum altum</t>
+          <t>Pachyrhizus ferrugineus</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Panicum altum</t>
+          <t>Pachyrhizus ferrugineus</t>
         </is>
       </c>
       <c r="D235" t="b">
@@ -5062,17 +5047,17 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Paspalum corcovadense</t>
+          <t>Palicourea cuspidata</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Paspalum corcovadense</t>
+          <t>Palicourea cuspidata</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Paspalum corcovadense</t>
+          <t>Palicourea cuspidata</t>
         </is>
       </c>
       <c r="D236" t="b">
@@ -5082,17 +5067,17 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Passiflora foetida</t>
+          <t>Panicum altum</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Passiflora foetida</t>
+          <t>Panicum altum</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Passiflora foetida</t>
+          <t>Panicum altum</t>
         </is>
       </c>
       <c r="D237" t="b">
@@ -5102,17 +5087,17 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Passiflora megacoriacea</t>
+          <t>Paspalum corcovadense</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Passiflora megacoriacea</t>
+          <t>Paspalum corcovadense</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Passiflora megacoriacea</t>
+          <t>Paspalum corcovadense</t>
         </is>
       </c>
       <c r="D238" t="b">
@@ -5122,17 +5107,17 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Paullinia allenii</t>
+          <t>Passiflora foetida</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Paullinia allenii</t>
+          <t>Passiflora foetida</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Paullinia allenii</t>
+          <t>Passiflora foetida</t>
         </is>
       </c>
       <c r="D239" t="b">
@@ -5142,17 +5127,17 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Peperomia macrostachyos</t>
+          <t>Passiflora megacoriacea</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Peperomia macrostachyos</t>
+          <t>Passiflora megacoriacea</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Peperomia macrostachyos</t>
+          <t>Passiflora megacoriacea</t>
         </is>
       </c>
       <c r="D240" t="b">
@@ -5162,17 +5147,17 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Perebea angustifolia</t>
+          <t>Paullinia allenii</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Perebea angustifolia</t>
+          <t>Paullinia allenii</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Perebea angustifolia</t>
+          <t>Paullinia allenii</t>
         </is>
       </c>
       <c r="D241" t="b">
@@ -5182,17 +5167,17 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Peristethium leptostachyum</t>
+          <t>Peperomia macrostachyos</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Peristethium leptostachyum</t>
+          <t>Peperomia macrostachyos</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Peristethium leptostachyum</t>
+          <t>Peperomia macrostachyos</t>
         </is>
       </c>
       <c r="D242" t="b">
@@ -5202,17 +5187,17 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Peritassa pruinosa</t>
+          <t>Perebea angustifolia</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Peritassa pruinosa</t>
+          <t>Perebea angustifolia</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Peritassa pruinosa</t>
+          <t>Perebea angustifolia</t>
         </is>
       </c>
       <c r="D243" t="b">
@@ -5222,17 +5207,17 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Persicaria punctata</t>
+          <t>Peristethium leptostachyum</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Persicaria punctata</t>
+          <t>Peristethium leptostachyum</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Persicaria punctata</t>
+          <t>Peristethium leptostachyum</t>
         </is>
       </c>
       <c r="D244" t="b">
@@ -5242,17 +5227,17 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Philodendron brevispathum</t>
+          <t>Peritassa pruinosa</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Philodendron brevispathum</t>
+          <t>Peritassa pruinosa</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Philodendron brevispathum</t>
+          <t>Peritassa pruinosa</t>
         </is>
       </c>
       <c r="D245" t="b">
@@ -5262,17 +5247,17 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Philodendron ernestii</t>
+          <t>Persicaria punctata</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Philodendron ernestii</t>
+          <t>Persicaria punctata</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Philodendron ernestii</t>
+          <t>Persicaria punctata</t>
         </is>
       </c>
       <c r="D246" t="b">
@@ -5282,17 +5267,17 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Phytelephas macrocarpa</t>
+          <t>Philodendron brevispathum</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Phytelephas macrocarpa</t>
+          <t>Philodendron brevispathum</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Phytelephas macrocarpa</t>
+          <t>Philodendron brevispathum</t>
         </is>
       </c>
       <c r="D247" t="b">
@@ -5302,17 +5287,17 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Piper albopunctulatissimum</t>
+          <t>Philodendron ernestii</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Piper albopunctulatissimum</t>
+          <t>Philodendron ernestii</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Piper albopunctulatissimum</t>
+          <t>Philodendron ernestii</t>
         </is>
       </c>
       <c r="D248" t="b">
@@ -5322,17 +5307,17 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Piper amphioxys</t>
+          <t>Phytelephas macrocarpa</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Piper amphioxys</t>
+          <t>Phytelephas macrocarpa</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Piper amphioxys</t>
+          <t>Phytelephas macrocarpa</t>
         </is>
       </c>
       <c r="D249" t="b">
@@ -5342,17 +5327,17 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Piper cabagranum</t>
+          <t>Piper albopunctulatissimum</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Piper cabagranum</t>
+          <t>Piper albopunctulatissimum</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Piper cabagranum</t>
+          <t>Piper albopunctulatissimum</t>
         </is>
       </c>
       <c r="D250" t="b">
@@ -5362,17 +5347,17 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Piper casimiranum</t>
+          <t>Piper amphioxys</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Piper casimirianum</t>
+          <t>Piper amphioxys</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Piper casimirianum</t>
+          <t>Piper amphioxys</t>
         </is>
       </c>
       <c r="D251" t="b">
@@ -5382,17 +5367,17 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Piper leptocladum</t>
+          <t>Piper cabagranum</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Piper leptocladum</t>
+          <t>Piper cabagranum</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Piper leptocladum</t>
+          <t>Piper cabagranum</t>
         </is>
       </c>
       <c r="D252" t="b">
@@ -5402,17 +5387,17 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Piper lucigaudens</t>
+          <t>Piper casimiranum</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Piper lucigaudens</t>
+          <t>Piper casimirianum</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Piper lucigaudens</t>
+          <t>Piper casimirianum</t>
         </is>
       </c>
       <c r="D253" t="b">
@@ -5422,17 +5407,17 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Piper pseudovariabile</t>
+          <t>Piper leptocladum</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Piper pseudovariabile</t>
+          <t>Piper leptocladum</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Piper pseudovariabile</t>
+          <t>Piper leptocladum</t>
         </is>
       </c>
       <c r="D254" t="b">
@@ -5442,17 +5427,17 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Piper seducentifolium</t>
+          <t>Piper lucigaudens</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Piper seducentifolium</t>
+          <t>Piper lucigaudens</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Piper seducentifolium</t>
+          <t>Piper lucigaudens</t>
         </is>
       </c>
       <c r="D255" t="b">
@@ -5462,17 +5447,17 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Piper subnudispicum</t>
+          <t>Piper pseudovariabile</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Piper subnudispicum</t>
+          <t>Piper pseudovariabile</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Piper subnudispicum</t>
+          <t>Piper pseudovariabile</t>
         </is>
       </c>
       <c r="D256" t="b">
@@ -5482,17 +5467,17 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Platymiscium darienense</t>
+          <t>Piper seducentifolium</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Platymiscium darienense</t>
+          <t>Piper seducentifolium</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Platymiscium darienense</t>
+          <t>Piper seducentifolium</t>
         </is>
       </c>
       <c r="D257" t="b">
@@ -5502,17 +5487,17 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Pleurothallis crocodiliceps</t>
+          <t>Piper subnudispicum</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Pleurothallis crocodiliceps</t>
+          <t>Piper subnudispicum</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Pleurothallis crocodiliceps</t>
+          <t>Piper subnudispicum</t>
         </is>
       </c>
       <c r="D258" t="b">
@@ -5522,17 +5507,17 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Polybotrya polybotryoides</t>
+          <t>Platymiscium darienense</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Polybotrya polybotryoides</t>
+          <t>Platymiscium darienense</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Polybotrya polybotryoides</t>
+          <t>Platymiscium darienense</t>
         </is>
       </c>
       <c r="D259" t="b">
@@ -5542,17 +5527,17 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Polystachya lineata</t>
+          <t>Pleurothallis crocodiliceps</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Polystachya lineata</t>
+          <t>Pleurothallis crocodiliceps</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Polystachya lineata</t>
+          <t>Pleurothallis crocodiliceps</t>
         </is>
       </c>
       <c r="D260" t="b">
@@ -5562,17 +5547,17 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Pourouma bicolor</t>
+          <t>Polybotrya polybotryoides</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Pourouma bicolor</t>
+          <t>Polybotrya polybotryoides</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Pourouma bicolor</t>
+          <t>Polybotrya polybotryoides</t>
         </is>
       </c>
       <c r="D261" t="b">
@@ -5582,17 +5567,17 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Pouteria glomerata</t>
+          <t>Polystachya lineata</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Pouteria glomerata</t>
+          <t>Polystachya lineata</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Pouteria glomerata</t>
+          <t>Polystachya lineata</t>
         </is>
       </c>
       <c r="D262" t="b">
@@ -5602,17 +5587,17 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Pouteria glomerata subsp. stylosa</t>
+          <t>Pourouma bicolor</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Pouteria glomerata subsp. stylosa</t>
+          <t>Pourouma bicolor</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Pouteria glomerata subsp. stylosa</t>
+          <t>Pourouma bicolor</t>
         </is>
       </c>
       <c r="D263" t="b">
@@ -5622,17 +5607,17 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Prestonia seemannii</t>
+          <t>Pouteria glomerata</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Prestonia seemannii</t>
+          <t>Pouteria glomerata</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Prestonia seemannii</t>
+          <t>Pouteria glomerata</t>
         </is>
       </c>
       <c r="D264" t="b">
@@ -5642,17 +5627,17 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Protium glabrum</t>
+          <t>Pouteria glomerata subsp. stylosa</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Protium glabrum</t>
+          <t>Pouteria glomerata subsp. stylosa</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Protium glabrum</t>
+          <t>Pouteria glomerata subsp. stylosa</t>
         </is>
       </c>
       <c r="D265" t="b">
@@ -5662,17 +5647,17 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Protium pittieri</t>
+          <t>Prestonia seemannii</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Protium pittieri</t>
+          <t>Prestonia seemannii</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Protium pittieri</t>
+          <t>Prestonia seemannii</t>
         </is>
       </c>
       <c r="D266" t="b">
@@ -5682,17 +5667,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Protium tenuifolium</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>Protium tenuifolium</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>Protium tenuifolium</t>
+          <t>Prionostemma duplex</t>
         </is>
       </c>
       <c r="D267" t="b">
@@ -5702,17 +5677,17 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Psychotria involucrata</t>
+          <t>Protium glabrum</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Psychotria involucrata</t>
+          <t>Protium glabrum</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Palicourea tenerior</t>
+          <t>Protium glabrum</t>
         </is>
       </c>
       <c r="D268" t="b">
@@ -5722,17 +5697,17 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Psychotria patens</t>
+          <t>Protium pittieri</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Psychotria patens</t>
+          <t>Protium pittieri</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Palicourea patens</t>
+          <t>Protium pittieri</t>
         </is>
       </c>
       <c r="D269" t="b">
@@ -5742,17 +5717,17 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Quararibea stenophylla</t>
+          <t>Protium tenuifolium</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Quararibea stenophylla</t>
+          <t>Protium tenuifolium</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Quararibea stenophylla</t>
+          <t>Protium tenuifolium</t>
         </is>
       </c>
       <c r="D270" t="b">
@@ -5762,17 +5737,17 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Randia armata</t>
+          <t>Psychotria involucrata</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Randia armata</t>
+          <t>Psychotria involucrata</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Randia armata</t>
+          <t>Palicourea tenerior</t>
         </is>
       </c>
       <c r="D271" t="b">
@@ -5782,17 +5757,17 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Randia grandifolia</t>
+          <t>Psychotria patens</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Randia grandifolia</t>
+          <t>Psychotria patens</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Randia grandifolia</t>
+          <t>Palicourea patens</t>
         </is>
       </c>
       <c r="D272" t="b">
@@ -5802,17 +5777,17 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Randia lasiantha</t>
+          <t>Quararibea stenophylla</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Randia lasiantha</t>
+          <t>Quararibea stenophylla</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Randia lasiantha</t>
+          <t>Quararibea stenophylla</t>
         </is>
       </c>
       <c r="D273" t="b">
@@ -5822,17 +5797,17 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Rhynchospora radicans</t>
+          <t>Randia armata</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Rhynchospora radicans</t>
+          <t>Randia armata</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Rhynchospora radicans</t>
+          <t>Randia armata</t>
         </is>
       </c>
       <c r="D274" t="b">
@@ -5842,17 +5817,17 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Rhynchospora radicans subsp. radicans</t>
+          <t>Randia grandifolia</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Rhynchospora radicans subsp. radicans</t>
+          <t>Randia grandifolia</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Rhynchospora radicans subsp. radicans</t>
+          <t>Randia grandifolia</t>
         </is>
       </c>
       <c r="D275" t="b">
@@ -5862,17 +5837,17 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Ronabea latifolia</t>
+          <t>Randia lasiantha</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Ronabea latifolia</t>
+          <t>Randia lasiantha</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Ronabea latifolia</t>
+          <t>Randia lasiantha</t>
         </is>
       </c>
       <c r="D276" t="b">
@@ -5882,17 +5857,17 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Rosa spinosissima</t>
+          <t>Rhynchospora radicans</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Rosa spinosissima</t>
+          <t>Rhynchospora radicans</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Rosa spinosissima</t>
+          <t>Rhynchospora radicans</t>
         </is>
       </c>
       <c r="D277" t="b">
@@ -5902,17 +5877,17 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Roupala montana</t>
+          <t>Rhynchospora radicans subsp. radicans</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Roupala montana</t>
+          <t>Rhynchospora radicans subsp. radicans</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Roupala montana</t>
+          <t>Rhynchospora radicans subsp. radicans</t>
         </is>
       </c>
       <c r="D278" t="b">
@@ -5922,17 +5897,17 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Rudgea cornifolia</t>
+          <t>Ronabea latifolia</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Rudgea cornifolia</t>
+          <t>Ronabea latifolia</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Rudgea cornifolia</t>
+          <t>Ronabea latifolia</t>
         </is>
       </c>
       <c r="D279" t="b">
@@ -5942,17 +5917,17 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Ruellia panamensis</t>
+          <t>Rosa spinosissima</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Ruellia panamensis</t>
+          <t>Rosa spinosissima</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Ruellia panamensis</t>
+          <t>Rosa spinosissima</t>
         </is>
       </c>
       <c r="D280" t="b">
@@ -5962,17 +5937,17 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Ruellia terminalis</t>
+          <t>Roupala montana</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Ruellia terminalis</t>
+          <t>Roupala montana</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Ruellia terminalis</t>
+          <t>Roupala montana</t>
         </is>
       </c>
       <c r="D281" t="b">
@@ -5982,17 +5957,17 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Saccoloma elegans</t>
+          <t>Rudgea cornifolia</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Saccoloma elegans</t>
+          <t>Rudgea cornifolia</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Saccoloma elegans</t>
+          <t>Rudgea cornifolia</t>
         </is>
       </c>
       <c r="D282" t="b">
@@ -6002,17 +5977,17 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Saccoloma inaequale</t>
+          <t>Ruellia panamensis</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Saccoloma inaequale</t>
+          <t>Ruellia panamensis</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Saccoloma inaequale</t>
+          <t>Ruellia panamensis</t>
         </is>
       </c>
       <c r="D283" t="b">
@@ -6022,17 +5997,17 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Sagittaria lancifolia subsp. lancifolia</t>
+          <t>Ruellia terminalis</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Sagittaria lancifolia subsp. lancifolia</t>
+          <t>Ruellia terminalis</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Sagittaria lancifolia subsp. lancifolia</t>
+          <t>Ruellia terminalis</t>
         </is>
       </c>
       <c r="D284" t="b">
@@ -6042,17 +6017,17 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Sagittaria lancifolia subsp. media</t>
+          <t>Saccoloma elegans</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Sagittaria lancifolia subsp. media</t>
+          <t>Saccoloma elegans</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Sagittaria lancifolia subsp. media</t>
+          <t>Saccoloma elegans</t>
         </is>
       </c>
       <c r="D285" t="b">
@@ -6062,17 +6037,17 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Sapindus saponaria</t>
+          <t>Saccoloma inaequale</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Sapindus saponaria</t>
+          <t>Saccoloma inaequale</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Sapindus saponaria</t>
+          <t>Saccoloma inaequale</t>
         </is>
       </c>
       <c r="D286" t="b">
@@ -6082,17 +6057,17 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Sapium pachystachys</t>
+          <t>Sagittaria lancifolia subsp. lancifolia</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Sapium pachystachys</t>
+          <t>Sagittaria lancifolia subsp. lancifolia</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Sapium pachystachys</t>
+          <t>Sagittaria lancifolia subsp. lancifolia</t>
         </is>
       </c>
       <c r="D287" t="b">
@@ -6102,17 +6077,17 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Scaphyglottis livida</t>
+          <t>Sagittaria lancifolia subsp. media</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Scaphyglottis livida</t>
+          <t>Sagittaria lancifolia subsp. media</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Scaphyglottis livida</t>
+          <t>Sagittaria lancifolia subsp. media</t>
         </is>
       </c>
       <c r="D288" t="b">
@@ -6122,17 +6097,17 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Schizachyrium condensatum</t>
+          <t>Sapindus saponaria</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Schizachyrium condensatum</t>
+          <t>Sapindus saponaria</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Schizachyrium condensatum</t>
+          <t>Sapindus saponaria</t>
         </is>
       </c>
       <c r="D289" t="b">
@@ -6142,17 +6117,17 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Securidaca sylvestris</t>
+          <t>Sapium pachystachys</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Securidaca sylvestris</t>
+          <t>Sapium pachystachys</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Securidaca sylvestris</t>
+          <t>Sapium pachystachys</t>
         </is>
       </c>
       <c r="D290" t="b">
@@ -6162,17 +6137,17 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Selaginella flabellata</t>
+          <t>Scaphyglottis livida</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Selaginella flabellata</t>
+          <t>Scaphyglottis livida</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Selaginella flabellata</t>
+          <t>Scaphyglottis livida</t>
         </is>
       </c>
       <c r="D291" t="b">
@@ -6182,17 +6157,17 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Selenicereus pteranthus</t>
+          <t>Schizachyrium condensatum</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Selenicereus pteranthus</t>
+          <t>Schizachyrium condensatum</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Selenicereus pteranthus</t>
+          <t>Schizachyrium condensatum</t>
         </is>
       </c>
       <c r="D292" t="b">
@@ -6202,17 +6177,17 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Senegalia croatii</t>
+          <t>Securidaca sylvestris</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Senegalia croatii</t>
+          <t>Securidaca sylvestris</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Senegalia croatii</t>
+          <t>Securidaca sylvestris</t>
         </is>
       </c>
       <c r="D293" t="b">
@@ -6222,17 +6197,17 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Senegalia tenuifolia</t>
+          <t>Selaginella flabellata</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Senegalia tenuifolia</t>
+          <t>Selaginella flabellata</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Senegalia tenuifolia</t>
+          <t>Selaginella flabellata</t>
         </is>
       </c>
       <c r="D294" t="b">
@@ -6242,17 +6217,17 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Senna bacillaris var. bacillaris</t>
+          <t>Selenicereus pteranthus</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Senna bacillaris var. bacillaris</t>
+          <t>Selenicereus pteranthus</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Senna bacillaris var. bacillaris</t>
+          <t>Selenicereus pteranthus</t>
         </is>
       </c>
       <c r="D295" t="b">
@@ -6262,17 +6237,17 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Senna dariensis</t>
+          <t>Senegalia croatii</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Senna dariensis</t>
+          <t>Senegalia croatii</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Senna dariensis</t>
+          <t>Senegalia croatii</t>
         </is>
       </c>
       <c r="D296" t="b">
@@ -6282,17 +6257,17 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Senna dariensis var. dariensis</t>
+          <t>Senegalia tenuifolia</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Senna dariensis var. dariensis</t>
+          <t>Senegalia tenuifolia</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Senna dariensis var. dariensis</t>
+          <t>Senegalia tenuifolia</t>
         </is>
       </c>
       <c r="D297" t="b">
@@ -6302,17 +6277,17 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Serjania membranacea</t>
+          <t>Senna bacillaris var. bacillaris</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Serjania membranacea</t>
+          <t>Senna bacillaris var. bacillaris</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Serjania membranacea</t>
+          <t>Senna bacillaris var. bacillaris</t>
         </is>
       </c>
       <c r="D298" t="b">
@@ -6322,17 +6297,17 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Sida ulmifolia</t>
+          <t>Senna dariensis</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Sida ulmifolia</t>
+          <t>Senna dariensis</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Sida ulmifolia</t>
+          <t>Senna dariensis</t>
         </is>
       </c>
       <c r="D299" t="b">
@@ -6342,17 +6317,17 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Simarouba glauca</t>
+          <t>Senna dariensis var. dariensis</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Simarouba glauca</t>
+          <t>Senna dariensis var. dariensis</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Simarouba glauca</t>
+          <t>Senna dariensis var. dariensis</t>
         </is>
       </c>
       <c r="D300" t="b">
@@ -6362,17 +6337,17 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Sloanea meianthera</t>
+          <t>Serjania membranacea</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Sloanea meianthera</t>
+          <t>Serjania membranacea</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Sloanea meianthera</t>
+          <t>Serjania membranacea</t>
         </is>
       </c>
       <c r="D301" t="b">
@@ -6382,17 +6357,17 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Smilax subpubescens</t>
+          <t>Sida ulmifolia</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Smilax subpubescens</t>
+          <t>Sida ulmifolia</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Smilax subpubescens</t>
+          <t>Sida ulmifolia</t>
         </is>
       </c>
       <c r="D302" t="b">
@@ -6402,17 +6377,17 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Solanum americanum</t>
+          <t>Simarouba glauca</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Solanum americanum</t>
+          <t>Simarouba glauca</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Solanum americanum</t>
+          <t>Simarouba glauca</t>
         </is>
       </c>
       <c r="D303" t="b">
@@ -6422,17 +6397,17 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Solanum pectinatum</t>
+          <t>Sloanea meianthera</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Solanum pectinatum</t>
+          <t>Sloanea meianthera</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Solanum pectinatum</t>
+          <t>Sloanea meianthera</t>
         </is>
       </c>
       <c r="D304" t="b">
@@ -6442,17 +6417,17 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Sorocea ruminata</t>
+          <t>Smilax subpubescens</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Sorocea ruminata</t>
+          <t>Smilax subpubescens</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Sorocea ruminata</t>
+          <t>Smilax subpubescens</t>
         </is>
       </c>
       <c r="D305" t="b">
@@ -6462,17 +6437,17 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Spachea correae</t>
+          <t>Solanum americanum</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Spachea correae</t>
+          <t>Solanum americanum</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Spachea correae</t>
+          <t>Solanum americanum</t>
         </is>
       </c>
       <c r="D306" t="b">
@@ -6482,17 +6457,17 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Spermacoce alata</t>
+          <t>Solanum pectinatum</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Spermacoce alata</t>
+          <t>Solanum pectinatum</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Spermacoce alata</t>
+          <t>Solanum pectinatum</t>
         </is>
       </c>
       <c r="D307" t="b">
@@ -6502,17 +6477,17 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Spondias dulcis</t>
+          <t>Sorocea ruminata</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Spondias dulcis</t>
+          <t>Sorocea ruminata</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Spondias dulcis</t>
+          <t>Sorocea ruminata</t>
         </is>
       </c>
       <c r="D308" t="b">
@@ -6522,17 +6497,17 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Spondias purpurea</t>
+          <t>Spachea correae</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Spondias purpurea</t>
+          <t>Spachea correae</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Spondias purpurea</t>
+          <t>Spachea correae</t>
         </is>
       </c>
       <c r="D309" t="b">
@@ -6542,17 +6517,17 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Sterculia apetala</t>
+          <t>Spermacoce alata</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Sterculia apetala</t>
+          <t>Spermacoce alata</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Sterculia apetala</t>
+          <t>Spermacoce alata</t>
         </is>
       </c>
       <c r="D310" t="b">
@@ -6562,17 +6537,17 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Sticherus ferrugineus</t>
+          <t>Spondias dulcis</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Sticherus ferrugineus</t>
+          <t>Spondias dulcis</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Sticherus ferrugineus</t>
+          <t>Spondias dulcis</t>
         </is>
       </c>
       <c r="D311" t="b">
@@ -6582,17 +6557,17 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Stictocardia tiliifolia</t>
+          <t>Spondias purpurea</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Stictocardia tiliifolia</t>
+          <t>Spondias purpurea</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Stictocardia tiliifolia</t>
+          <t>Spondias purpurea</t>
         </is>
       </c>
       <c r="D312" t="b">
@@ -6602,17 +6577,17 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Stictocardia tiliifolia subsp. tiliifolia</t>
+          <t>Sterculia apetala</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Stictocardia tiliifolia subsp. tiliifolia</t>
+          <t>Sterculia apetala</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Stictocardia tiliifolia subsp. tiliifolia</t>
+          <t>Sterculia apetala</t>
         </is>
       </c>
       <c r="D313" t="b">
@@ -6622,17 +6597,17 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Stylogyne turbacensis</t>
+          <t>Sticherus ferrugineus</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Stylogyne turbacensis</t>
+          <t>Sticherus ferrugineus</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Stylogyne turbacensis</t>
+          <t>Sticherus ferrugineus</t>
         </is>
       </c>
       <c r="D314" t="b">
@@ -6642,17 +6617,17 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Swietenia macrophylla</t>
+          <t>Stictocardia tiliifolia</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Swietenia macrophylla</t>
+          <t>Stictocardia tiliifolia</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Swietenia macrophylla</t>
+          <t>Stictocardia tiliifolia</t>
         </is>
       </c>
       <c r="D315" t="b">
@@ -6662,17 +6637,17 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Syzygium melanostictum</t>
+          <t>Stictocardia tiliifolia subsp. tiliifolia</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Syzygium melanostictum</t>
+          <t>Stictocardia tiliifolia subsp. tiliifolia</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Syzygium melanostictum</t>
+          <t>Stictocardia tiliifolia subsp. tiliifolia</t>
         </is>
       </c>
       <c r="D316" t="b">
@@ -6682,17 +6657,17 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Tabernaemontana amygdalifolia</t>
+          <t>Stylogyne turbacensis</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Tabernaemontana amygdalifolia</t>
+          <t>Stylogyne turbacensis</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Tabernaemontana amygdalifolia</t>
+          <t>Stylogyne turbacensis</t>
         </is>
       </c>
       <c r="D317" t="b">
@@ -6702,17 +6677,17 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Tachigali panamensis</t>
+          <t>Swietenia macrophylla</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Tachigali panamensis</t>
+          <t>Swietenia macrophylla</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Tachigali panamensis</t>
+          <t>Swietenia macrophylla</t>
         </is>
       </c>
       <c r="D318" t="b">
@@ -6722,17 +6697,17 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Tamarindus indica</t>
+          <t>Syzygium melanostictum</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Tamarindus indica</t>
+          <t>Syzygium melanostictum</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Tamarindus indica</t>
+          <t>Syzygium melanostictum</t>
         </is>
       </c>
       <c r="D319" t="b">
@@ -6742,17 +6717,17 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Tapirira guianensis</t>
+          <t>Tabernaemontana amygdalifolia</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Tapirira guianensis</t>
+          <t>Tabernaemontana amygdalifolia</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Tapirira guianensis</t>
+          <t>Tabernaemontana amygdalifolia</t>
         </is>
       </c>
       <c r="D320" t="b">
@@ -6762,17 +6737,17 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Tarenaya parviflora</t>
+          <t>Tachigali panamensis</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Tarenaya parviflora</t>
+          <t>Tachigali panamensis</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Cleome parviflora</t>
+          <t>Tachigali panamensis</t>
         </is>
       </c>
       <c r="D321" t="b">
@@ -6782,17 +6757,17 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Tetracera costata</t>
+          <t>Tamarindus indica</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Tetracera costata</t>
+          <t>Tamarindus indica</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Tetracera costata</t>
+          <t>Tamarindus indica</t>
         </is>
       </c>
       <c r="D322" t="b">
@@ -6802,17 +6777,17 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Tetracera costata subsp. costata</t>
+          <t>Tapirira guianensis</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Tetracera costata</t>
+          <t>Tapirira guianensis</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Tetracera costata</t>
+          <t>Tapirira guianensis</t>
         </is>
       </c>
       <c r="D323" t="b">
@@ -6822,17 +6797,17 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Tetracera volubilis subsp. volubilis</t>
+          <t>Tarenaya parviflora</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Tetracera volubilis subsp. volubilis</t>
+          <t>Tarenaya parviflora</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Tetracera volubilis subsp. volubilis</t>
+          <t>Cleome parviflora</t>
         </is>
       </c>
       <c r="D324" t="b">
@@ -6842,17 +6817,17 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Tetracera willdenowiana</t>
+          <t>Tetracera costata</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Tetracera willdenowiana</t>
+          <t>Tetracera costata</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Tetracera willdenowiana</t>
+          <t>Tetracera costata</t>
         </is>
       </c>
       <c r="D325" t="b">
@@ -6862,17 +6837,17 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Thismia luetzelburgii</t>
+          <t>Tetracera costata subsp. costata</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Thismia luetzelburgii</t>
+          <t>Tetracera costata</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Thismia luetzelburgii</t>
+          <t>Tetracera costata</t>
         </is>
       </c>
       <c r="D326" t="b">
@@ -6882,17 +6857,17 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Tillandsia usneoides</t>
+          <t>Tetracera volubilis subsp. volubilis</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Tillandsia usneoides</t>
+          <t>Tetracera volubilis subsp. volubilis</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Tillandsia usneoides</t>
+          <t>Tetracera volubilis subsp. volubilis</t>
         </is>
       </c>
       <c r="D327" t="b">
@@ -6902,17 +6877,17 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Trema domingensis</t>
+          <t>Tetracera willdenowiana</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Trema domingense</t>
+          <t>Tetracera willdenowiana</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Trema domingense</t>
+          <t>Tetracera willdenowiana</t>
         </is>
       </c>
       <c r="D328" t="b">
@@ -6922,17 +6897,17 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Trichomanes punctatum subsp. labiatum</t>
+          <t>Thismia luetzelburgii</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Trichomanes punctatum subsp. labiatum</t>
+          <t>Thismia luetzelburgii</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Trichomanes labiatum</t>
+          <t>Thismia luetzelburgii</t>
         </is>
       </c>
       <c r="D329" t="b">
@@ -6942,17 +6917,17 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Trichostigma octandrum</t>
+          <t>Tillandsia usneoides</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Trichostigma octandrum</t>
+          <t>Tillandsia usneoides</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Trichostigma octandrum</t>
+          <t>Tillandsia usneoides</t>
         </is>
       </c>
       <c r="D330" t="b">
@@ -6962,17 +6937,17 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Triplaris americana</t>
+          <t>Trema domingensis</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Triplaris americana</t>
+          <t>Trema domingense</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Triplaris americana</t>
+          <t>Trema domingense</t>
         </is>
       </c>
       <c r="D331" t="b">
@@ -6982,17 +6957,17 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Urena lobata</t>
+          <t>Trichomanes punctatum subsp. labiatum</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Urena lobata</t>
+          <t>Trichomanes punctatum subsp. labiatum</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Urena lobata</t>
+          <t>Trichomanes labiatum</t>
         </is>
       </c>
       <c r="D332" t="b">
@@ -7002,17 +6977,17 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Urera caracasana</t>
+          <t>Trichostigma octandrum</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Urera caracasana</t>
+          <t>Trichostigma octandrum</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Urera caracasana</t>
+          <t>Trichostigma octandrum</t>
         </is>
       </c>
       <c r="D333" t="b">
@@ -7022,17 +6997,17 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Vachellia cornigera</t>
+          <t>Triplaris americana</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Vachellia cornigera</t>
+          <t>Triplaris americana</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Vachellia cornigera</t>
+          <t>Triplaris americana</t>
         </is>
       </c>
       <c r="D334" t="b">
@@ -7042,17 +7017,17 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Vachellia farnesiana</t>
+          <t>Urena lobata</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Vachellia farnesiana</t>
+          <t>Urena lobata</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Vachellia farnesiana</t>
+          <t>Urena lobata</t>
         </is>
       </c>
       <c r="D335" t="b">
@@ -7062,17 +7037,17 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Virola fosteri</t>
+          <t>Urera caracasana</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Virola fosteri</t>
+          <t>Urera caracasana</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Virola fosteri</t>
+          <t>Urera caracasana</t>
         </is>
       </c>
       <c r="D336" t="b">
@@ -7082,17 +7057,17 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Vismia guianensis</t>
+          <t>Vachellia cornigera</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Vismia guianensis</t>
+          <t>Vachellia cornigera</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Vismia guianensis</t>
+          <t>Vachellia cornigera</t>
         </is>
       </c>
       <c r="D337" t="b">
@@ -7102,17 +7077,17 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Vismia jefensis</t>
+          <t>Vachellia farnesiana</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Vismia jefensis</t>
+          <t>Vachellia farnesiana</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Vismia jefensis</t>
+          <t>Vachellia farnesiana</t>
         </is>
       </c>
       <c r="D338" t="b">
@@ -7122,17 +7097,17 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Vismia latifolia</t>
+          <t>Virola fosteri</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Vismia latifolia</t>
+          <t>Virola fosteri</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Vismia latifolia</t>
+          <t>Virola fosteri</t>
         </is>
       </c>
       <c r="D339" t="b">
@@ -7142,17 +7117,17 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Voyria flavescens</t>
+          <t>Vismia guianensis</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Voyria flavescens</t>
+          <t>Vismia guianensis</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Voyria flavescens</t>
+          <t>Vismia guianensis</t>
         </is>
       </c>
       <c r="D340" t="b">
@@ -7162,17 +7137,17 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Ziziphus strychnifolia</t>
+          <t>Vismia jefensis</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Ziziphus strychnifolia</t>
+          <t>Vismia jefensis</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Sarcomphalus strychnifolius</t>
+          <t>Vismia jefensis</t>
         </is>
       </c>
       <c r="D341" t="b">
@@ -7182,17 +7157,17 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Zygia latifolia</t>
+          <t>Vismia latifolia</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Zygia latifolia</t>
+          <t>Vismia latifolia</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Zygia latifolia</t>
+          <t>Vismia latifolia</t>
         </is>
       </c>
       <c r="D342" t="b">
@@ -7202,20 +7177,80 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
+          <t>Voyria flavescens</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Voyria flavescens</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Voyria flavescens</t>
+        </is>
+      </c>
+      <c r="D343" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Ziziphus strychnifolia</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Ziziphus strychnifolia</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Sarcomphalus strychnifolius</t>
+        </is>
+      </c>
+      <c r="D344" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Zygia latifolia</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Zygia latifolia</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Zygia latifolia</t>
+        </is>
+      </c>
+      <c r="D345" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
           <t>Zygia latifolia var. latifolia</t>
         </is>
       </c>
-      <c r="B343" t="inlineStr">
+      <c r="B346" t="inlineStr">
         <is>
           <t>Zygia latifolia var. latifolia</t>
         </is>
       </c>
-      <c r="C343" t="inlineStr">
+      <c r="C346" t="inlineStr">
         <is>
           <t>Zygia latifolia var. latifolia</t>
         </is>
       </c>
-      <c r="D343" t="b">
+      <c r="D346" t="b">
         <v>0</v>
       </c>
     </row>

--- a/splists_out/panamabiota_species_not_in_garwood.xlsx
+++ b/splists_out/panamabiota_species_not_in_garwood.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D346"/>
+  <dimension ref="A1:C362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -373,11 +373,6 @@
           <t>wcvp_accepted_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>is_garwood_synonym</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -395,9 +390,6 @@
           <t>Abuta seemannii</t>
         </is>
       </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -415,9 +407,6 @@
           <t>Senegalia tenuifolia</t>
         </is>
       </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -435,9 +424,6 @@
           <t>Acalypha costaricensis</t>
         </is>
       </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -455,9 +441,6 @@
           <t>Acrocomia aculeata</t>
         </is>
       </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -475,9 +458,6 @@
           <t>Hemionitis radiata</t>
         </is>
       </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -495,9 +475,6 @@
           <t>Adiantum patens</t>
         </is>
       </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -515,9 +492,6 @@
           <t>Adiantum tetraphyllum</t>
         </is>
       </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -535,9 +509,6 @@
           <t>Adiantum villosum</t>
         </is>
       </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -555,9 +526,6 @@
           <t>Aegiphila deppeana</t>
         </is>
       </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -575,9 +543,6 @@
           <t>Aegiphila laeta</t>
         </is>
       </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -595,9 +560,6 @@
           <t>Aeschynomene americana</t>
         </is>
       </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -615,9 +577,6 @@
           <t>Grammitis elastica</t>
         </is>
       </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -635,9 +594,6 @@
           <t>Allamanda schottii</t>
         </is>
       </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -655,9 +611,6 @@
           <t>Allophylus punctatus</t>
         </is>
       </c>
-      <c r="D15" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -675,9 +628,6 @@
           <t>Alocasia navicularis</t>
         </is>
       </c>
-      <c r="D16" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -695,9 +645,6 @@
           <t>Alsophila firma</t>
         </is>
       </c>
-      <c r="D17" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -715,9 +662,6 @@
           <t>Alternanthera halimifolia</t>
         </is>
       </c>
-      <c r="D18" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -735,9 +679,6 @@
           <t>Andira inermis</t>
         </is>
       </c>
-      <c r="D19" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -755,9 +696,6 @@
           <t>Andropogon glomeratus</t>
         </is>
       </c>
-      <c r="D20" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -775,9 +713,6 @@
           <t>Anemia millefolia</t>
         </is>
       </c>
-      <c r="D21" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -795,6463 +730,5760 @@
           <t>Anemia oblongifolia</t>
         </is>
       </c>
-      <c r="D22" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Anthurium flexile subsp. flexile</t>
+          <t>Anthurium durandii</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Anthurium flexile subsp. flexile</t>
+          <t>Anthurium durandii</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Anthurium flexile subsp. flexile</t>
-        </is>
-      </c>
-      <c r="D23" t="b">
-        <v>0</v>
+          <t>Anthurium durandii</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Anthurium pentaphyllum</t>
+          <t>Anthurium flexile subsp. flexile</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Anthurium pentaphyllum</t>
+          <t>Anthurium flexile subsp. flexile</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Anthurium pentaphyllum</t>
-        </is>
-      </c>
-      <c r="D24" t="b">
-        <v>0</v>
+          <t>Anthurium flexile subsp. flexile</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Anthurium schlechtendalii</t>
+          <t>Anthurium pentaphyllum</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Anthurium schlechtendalii</t>
+          <t>Anthurium pentaphyllum</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Anthurium schlechtendalii</t>
-        </is>
-      </c>
-      <c r="D25" t="b">
-        <v>0</v>
+          <t>Anthurium pentaphyllum</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Apalanthe granatensis</t>
+          <t>Anthurium pentaphyllum var. bombacifolium</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Apalanthe granatensis</t>
+          <t>Anthurium pentaphyllum var. bombacifolium</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Elodea granatensis</t>
-        </is>
-      </c>
-      <c r="D26" t="b">
-        <v>0</v>
+          <t>Anthurium pentaphyllum var. bombacifolium</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Aphelandra arnoldii</t>
+          <t>Anthurium schlechtendalii</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Aphelandra arnoldii</t>
+          <t>Anthurium schlechtendalii</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Aphelandra arnoldii</t>
-        </is>
-      </c>
-      <c r="D27" t="b">
-        <v>0</v>
+          <t>Anthurium schlechtendalii</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Araucaria columnaris</t>
+          <t>Anthurium schlechtendalii subsp. schlechtendalii</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Araucaria columnaris</t>
+          <t>Anthurium schlechtendalii subsp. schlechtendalii</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Araucaria columnaris</t>
-        </is>
-      </c>
-      <c r="D28" t="b">
-        <v>0</v>
+          <t>Anthurium schlechtendalii subsp. schlechtendalii</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Ardisia bartlettii</t>
+          <t>Apalanthe granatensis</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ardisia bartletii</t>
+          <t>Apalanthe granatensis</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Ardisia bartletii</t>
-        </is>
-      </c>
-      <c r="D29" t="b">
-        <v>0</v>
+          <t>Elodea granatensis</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Ardisia fruticosa</t>
+          <t>Aphelandra arnoldii</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ardisia fruticosa</t>
+          <t>Aphelandra arnoldii</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Ardisia fruticosa</t>
-        </is>
-      </c>
-      <c r="D30" t="b">
-        <v>0</v>
+          <t>Aphelandra arnoldii</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Ardisia opaca</t>
+          <t>Araucaria columnaris</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ardisia opaca</t>
+          <t>Araucaria columnaris</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Ardisia opaca</t>
-        </is>
-      </c>
-      <c r="D31" t="b">
-        <v>0</v>
+          <t>Araucaria columnaris</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Ardisia pellucida</t>
+          <t>Ardisia bartlettii</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ardisia pellucida</t>
+          <t>Ardisia bartletii</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Ardisia pellucida</t>
-        </is>
-      </c>
-      <c r="D32" t="b">
-        <v>0</v>
+          <t>Ardisia bartletii</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Ardisia subsessilifolia</t>
+          <t>Ardisia fruticosa</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ardisia subsessilifolia</t>
+          <t>Ardisia fruticosa</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Ardisia subsessilifolia</t>
-        </is>
-      </c>
-      <c r="D33" t="b">
-        <v>0</v>
+          <t>Ardisia fruticosa</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Aristolochia maxima</t>
+          <t>Ardisia opaca</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Aristolochia maxima</t>
+          <t>Ardisia opaca</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Aristolochia maxima</t>
-        </is>
-      </c>
-      <c r="D34" t="b">
-        <v>0</v>
+          <t>Ardisia opaca</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Arthrostemma ciliatum</t>
+          <t>Ardisia pellucida</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Arthrostemma ciliatum</t>
+          <t>Ardisia pellucida</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Arthrostemma ciliatum</t>
-        </is>
-      </c>
-      <c r="D35" t="b">
-        <v>0</v>
+          <t>Ardisia pellucida</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Aspasia epidendroides</t>
+          <t>Ardisia subsessilifolia</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Aspasia epidendroides</t>
+          <t>Ardisia subsessilifolia</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Aspasia epidendroides</t>
-        </is>
-      </c>
-      <c r="D36" t="b">
-        <v>0</v>
+          <t>Ardisia subsessilifolia</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Asplenium hoffmannii</t>
+          <t>Aristolochia maxima</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Asplenium hoffmannii</t>
+          <t>Aristolochia maxima</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Hymenasplenium hoffmannii</t>
-        </is>
-      </c>
-      <c r="D37" t="b">
-        <v>0</v>
+          <t>Aristolochia maxima</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Bactris gasipaes</t>
+          <t>Arthrostemma ciliatum</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Bactris gasipaes</t>
+          <t>Arthrostemma ciliatum</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Bactris gasipaes</t>
-        </is>
-      </c>
-      <c r="D38" t="b">
-        <v>0</v>
+          <t>Arthrostemma ciliatum</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Bactris major</t>
+          <t>Aspasia epidendroides</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Bactris major</t>
+          <t>Aspasia epidendroides</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Bactris major</t>
-        </is>
-      </c>
-      <c r="D39" t="b">
-        <v>0</v>
+          <t>Aspasia epidendroides</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Bactris major var. infesta</t>
+          <t>Asplenium abscissum</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Bactris major var. infesta</t>
+          <t>Asplenium abscissum</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Bactris major var. infesta</t>
-        </is>
-      </c>
-      <c r="D40" t="b">
-        <v>0</v>
+          <t>Asplenium abscissum</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Banisteriopsis muricata</t>
+          <t>Asplenium hoffmannii</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Banisteriopsis muricata</t>
+          <t>Asplenium hoffmannii</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Banisteriopsis muricata</t>
-        </is>
-      </c>
-      <c r="D41" t="b">
-        <v>0</v>
+          <t>Hymenasplenium hoffmannii</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Bauhinia monandra</t>
+          <t>Bactris gasipaes</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Bauhinia monandra</t>
+          <t>Bactris gasipaes</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Bauhinia monandra</t>
-        </is>
-      </c>
-      <c r="D42" t="b">
-        <v>0</v>
+          <t>Bactris gasipaes</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Bauhinia purpurea</t>
+          <t>Bactris major</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Bauhinia purpurea</t>
+          <t>Bactris major</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Bauhinia purpurea</t>
-        </is>
-      </c>
-      <c r="D43" t="b">
-        <v>0</v>
+          <t>Bactris major</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Billbergia porteana</t>
+          <t>Bactris major var. infesta</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Billbergia porteana</t>
+          <t>Bactris major var. infesta</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Billbergia porteana</t>
-        </is>
-      </c>
-      <c r="D44" t="b">
-        <v>0</v>
+          <t>Bactris major var. infesta</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Blechum panamense</t>
+          <t>Banisteriopsis muricata</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Blechum panamense</t>
+          <t>Banisteriopsis muricata</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Ruellia panamensis</t>
-        </is>
-      </c>
-      <c r="D45" t="b">
-        <v>0</v>
+          <t>Banisteriopsis muricata</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Boerhavia coccinea</t>
+          <t>Bauhinia monandra</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Boerhavia coccinea</t>
+          <t>Bauhinia monandra</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Boerhavia coccinea</t>
-        </is>
-      </c>
-      <c r="D46" t="b">
-        <v>0</v>
+          <t>Bauhinia monandra</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Bonellia macrocarpa</t>
+          <t>Bauhinia purpurea</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Bonellia macrocarpa</t>
+          <t>Bauhinia purpurea</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Bonellia macrocarpa</t>
-        </is>
-      </c>
-      <c r="D47" t="b">
-        <v>0</v>
+          <t>Bauhinia purpurea</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Bothriochloa insculpta</t>
+          <t>Billbergia porteana</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Bothriochloa insculpta</t>
+          <t>Billbergia porteana</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Bothriochloa insculpta</t>
-        </is>
-      </c>
-      <c r="D48" t="b">
-        <v>0</v>
+          <t>Billbergia porteana</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Brassia maculata</t>
+          <t>Blechum panamense</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Brassia maculata</t>
+          <t>Blechum panamense</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Brassia maculata</t>
-        </is>
-      </c>
-      <c r="D49" t="b">
-        <v>0</v>
+          <t>Ruellia panamensis</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Brosimum alicastrum</t>
+          <t>Boerhavia coccinea</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Brosimum alicastrum</t>
+          <t>Boerhavia coccinea</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Brosimum alicastrum</t>
-        </is>
-      </c>
-      <c r="D50" t="b">
-        <v>0</v>
+          <t>Boerhavia coccinea</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Bunchosia lindeniana</t>
+          <t>Bonellia macrocarpa</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Bunchosia lindeniana</t>
+          <t>Bonellia macrocarpa</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Bunchosia lindeniana</t>
-        </is>
-      </c>
-      <c r="D51" t="b">
-        <v>0</v>
+          <t>Bonellia macrocarpa</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Callisia repens</t>
+          <t>Bothriochloa insculpta</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Callisia repens</t>
+          <t>Bothriochloa insculpta</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Callisia repens</t>
-        </is>
-      </c>
-      <c r="D52" t="b">
-        <v>0</v>
+          <t>Bothriochloa insculpta</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Calophyllum mesoamericanum</t>
+          <t>Brassia maculata</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Calophyllum mesoamericanum</t>
+          <t>Brassia maculata</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Calophyllum mesoamericanum</t>
-        </is>
-      </c>
-      <c r="D53" t="b">
-        <v>0</v>
+          <t>Brassia maculata</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Capparis cynophallophora</t>
+          <t>Brosimum alicastrum</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Capparis cynophallophora</t>
+          <t>Brosimum alicastrum</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Morisonia cynophallophora</t>
-        </is>
-      </c>
-      <c r="D54" t="b">
-        <v>0</v>
+          <t>Brosimum alicastrum</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Capparis indica</t>
+          <t>Bunchosia lindeniana</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Capparis indica</t>
+          <t>Bunchosia lindeniana</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Morisonia indica</t>
-        </is>
-      </c>
-      <c r="D55" t="b">
-        <v>0</v>
+          <t>Bunchosia lindeniana</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Capsicum annuum</t>
+          <t>Callisia repens</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Capsicum annuum</t>
+          <t>Callisia repens</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Capsicum annuum</t>
-        </is>
-      </c>
-      <c r="D56" t="b">
-        <v>0</v>
+          <t>Callisia repens</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Capsicum frutescens</t>
+          <t>Calophyllum mesoamericanum</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Capsicum frutescens</t>
+          <t>Calophyllum mesoamericanum</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Capsicum frutescens</t>
-        </is>
-      </c>
-      <c r="D57" t="b">
-        <v>0</v>
+          <t>Calophyllum mesoamericanum</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Casearia sylvestris</t>
+          <t>Campyloneurum angustifolium</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Casearia sylvestris</t>
+          <t>Campyloneurum angustifolium</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Casearia sylvestris</t>
-        </is>
-      </c>
-      <c r="D58" t="b">
-        <v>0</v>
+          <t>Campyloneurum angustifolium</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Casearia sylvestris var. lingua</t>
+          <t>Capparis cynophallophora</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Casearia sylvestris var. lingua</t>
+          <t>Capparis cynophallophora</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Casearia sylvestris var. lingua</t>
-        </is>
-      </c>
-      <c r="D59" t="b">
-        <v>0</v>
+          <t>Morisonia cynophallophora</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Castilla elastica</t>
+          <t>Capparis indica</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Castilla elastica</t>
+          <t>Capparis indica</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Castilla elastica</t>
-        </is>
-      </c>
-      <c r="D60" t="b">
-        <v>0</v>
+          <t>Morisonia indica</t>
+        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Castilla elastica subsp. elastica</t>
+          <t>Capsicum annuum</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Castilla elastica subsp. elastica</t>
+          <t>Capsicum annuum</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Castilla elastica subsp. elastica</t>
-        </is>
-      </c>
-      <c r="D61" t="b">
-        <v>0</v>
+          <t>Capsicum annuum</t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Ceratopteris deltoidea</t>
+          <t>Capsicum frutescens</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Ceratopteris deltoidea</t>
+          <t>Capsicum frutescens</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Ceratopteris richardii</t>
-        </is>
-      </c>
-      <c r="D62" t="b">
-        <v>0</v>
+          <t>Capsicum frutescens</t>
+        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Cestrum schlechtendalii</t>
+          <t>Casearia sylvestris</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Cestrum schlechtendalii</t>
+          <t>Casearia sylvestris</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Cestrum schlechtendalii</t>
-        </is>
-      </c>
-      <c r="D63" t="b">
-        <v>0</v>
+          <t>Casearia sylvestris</t>
+        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Cheiloclinium hippocrateoides</t>
+          <t>Casearia sylvestris var. lingua</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Cheiloclinium hippocrateoides</t>
+          <t>Casearia sylvestris var. lingua</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Cheiloclinium hippocrateoides</t>
-        </is>
-      </c>
-      <c r="D64" t="b">
-        <v>0</v>
+          <t>Casearia sylvestris var. lingua</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Cheiloclinium obtusum</t>
+          <t>Castilla elastica</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Cheiloclinium obtusum</t>
+          <t>Castilla elastica</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Cheiloclinium obtusum</t>
-        </is>
-      </c>
-      <c r="D65" t="b">
-        <v>0</v>
+          <t>Castilla elastica</t>
+        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Chelonanthus acutangulus</t>
+          <t>Castilla elastica subsp. elastica</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Chelonanthus acutangulus</t>
+          <t>Castilla elastica subsp. elastica</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Helia acutangula</t>
-        </is>
-      </c>
-      <c r="D66" t="b">
-        <v>0</v>
+          <t>Castilla elastica subsp. elastica</t>
+        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Chiococca belizensis</t>
+          <t>Ceratopteris deltoidea</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Chiococca belizensis</t>
+          <t>Ceratopteris deltoidea</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Chiococca belizensis</t>
-        </is>
-      </c>
-      <c r="D67" t="b">
-        <v>0</v>
+          <t>Ceratopteris richardii</t>
+        </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Chloris barbata</t>
+          <t>Cestrum schlechtendalii</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Chloris barbata</t>
+          <t>Cestrum schlechtendalii</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Chloris barbata</t>
-        </is>
-      </c>
-      <c r="D68" t="b">
-        <v>0</v>
+          <t>Cestrum schlechtendalii</t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Christella hispidula</t>
+          <t>Cheiloclinium hippocrateoides</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Christella hispidula</t>
+          <t>Cheiloclinium hippocrateoides</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Thelypteris hispidula</t>
-        </is>
-      </c>
-      <c r="D69" t="b">
-        <v>0</v>
+          <t>Cheiloclinium hippocrateoides</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Chrysochlamys grandifolia</t>
+          <t>Cheiloclinium obtusum</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Chrysochlamys grandifolia</t>
+          <t>Cheiloclinium obtusum</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Chrysochlamys myrcioides</t>
-        </is>
-      </c>
-      <c r="D70" t="b">
-        <v>0</v>
+          <t>Cheiloclinium obtusum</t>
+        </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Chrysochlamys nicaraguensis</t>
+          <t>Chelonanthus acutangulus</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Chrysochlamys nicaraguensis</t>
+          <t>Chelonanthus acutangulus</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Chrysochlamys nicaraguensis</t>
-        </is>
-      </c>
-      <c r="D71" t="b">
-        <v>0</v>
+          <t>Helia acutangula</t>
+        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Chrysophyllum argenteum</t>
+          <t>Chiococca belizensis</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Chrysophyllum argenteum</t>
+          <t>Chiococca belizensis</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Chrysophyllum argenteum</t>
-        </is>
-      </c>
-      <c r="D72" t="b">
-        <v>0</v>
+          <t>Chiococca belizensis</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Cissus verticillata</t>
+          <t>Chloris barbata</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Cissus verticillata</t>
+          <t>Chloris barbata</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Cissus verticillata</t>
-        </is>
-      </c>
-      <c r="D73" t="b">
-        <v>0</v>
+          <t>Chloris barbata</t>
+        </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Citharexylum caudatum</t>
+          <t>Christella hispidula</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Citharexylum caudatum</t>
+          <t>Christella hispidula</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Citharexylum caudatum</t>
-        </is>
-      </c>
-      <c r="D74" t="b">
-        <v>0</v>
+          <t>Thelypteris hispidula</t>
+        </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Clitoria arborescens</t>
+          <t>Chrysochlamys grandifolia</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Clitoria arborescens</t>
+          <t>Chrysochlamys grandifolia</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Clitoria arborescens</t>
-        </is>
-      </c>
-      <c r="D75" t="b">
-        <v>0</v>
+          <t>Chrysochlamys myrcioides</t>
+        </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Clusia valerioi</t>
+          <t>Chrysochlamys nicaraguensis</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Clusia valerii</t>
+          <t>Chrysochlamys nicaraguensis</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Clusia valerii</t>
-        </is>
-      </c>
-      <c r="D76" t="b">
-        <v>0</v>
+          <t>Chrysochlamys nicaraguensis</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Coccoloba barbadensis</t>
+          <t>Chrysophyllum argenteum</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Coccoloba barbadensis</t>
+          <t>Chrysophyllum argenteum</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Coccoloba barbadensis</t>
-        </is>
-      </c>
-      <c r="D77" t="b">
-        <v>0</v>
+          <t>Chrysophyllum argenteum</t>
+        </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Coccoloba obovata</t>
+          <t>Cissus verticillata</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Coccoloba obovata</t>
+          <t>Cissus verticillata</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Coccoloba obovata</t>
-        </is>
-      </c>
-      <c r="D78" t="b">
-        <v>0</v>
+          <t>Cissus verticillata</t>
+        </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Cochleanthes aromatica</t>
+          <t>Citharexylum caudatum</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Cochleanthes aromatica</t>
+          <t>Citharexylum caudatum</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Cochleanthes aromatica</t>
-        </is>
-      </c>
-      <c r="D79" t="b">
-        <v>0</v>
+          <t>Citharexylum caudatum</t>
+        </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Cohniella nuda</t>
+          <t>Clitoria arborescens</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Cohniella nuda</t>
+          <t>Clitoria arborescens</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Trichocentrum nudum</t>
-        </is>
-      </c>
-      <c r="D80" t="b">
-        <v>0</v>
+          <t>Clitoria arborescens</t>
+        </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Cohniella nuda subsp. stipitata</t>
+          <t>Clusia valerioi</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Cohniella nuda</t>
+          <t>Clusia valerii</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Trichocentrum nudum</t>
-        </is>
-      </c>
-      <c r="D81" t="b">
-        <v>0</v>
+          <t>Clusia valerii</t>
+        </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Colubrina glandulosa</t>
+          <t>Coccoloba barbadensis</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Colubrina glandulosa</t>
+          <t>Coccoloba barbadensis</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Colubrina glandulosa</t>
-        </is>
-      </c>
-      <c r="D82" t="b">
-        <v>0</v>
+          <t>Coccoloba barbadensis</t>
+        </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Commelina erecta subsp. erecta</t>
+          <t>Coccoloba obovata</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Commelina erecta subsp. erecta</t>
+          <t>Coccoloba obovata</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Commelina erecta subsp. erecta</t>
-        </is>
-      </c>
-      <c r="D83" t="b">
-        <v>0</v>
+          <t>Coccoloba obovata</t>
+        </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Connarus lentiginosus</t>
+          <t>Cochleanthes aromatica</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Connarus lentiginosus</t>
+          <t>Cochleanthes aromatica</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Connarus lentiginosus</t>
-        </is>
-      </c>
-      <c r="D84" t="b">
-        <v>0</v>
+          <t>Cochleanthes aromatica</t>
+        </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Connarus monocarpus</t>
+          <t>Cohniella nuda</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Connarus monocarpus</t>
+          <t>Cohniella nuda</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Rourea minor</t>
-        </is>
-      </c>
-      <c r="D85" t="b">
-        <v>0</v>
+          <t>Trichocentrum nudum</t>
+        </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Connarus monocarpus subsp. malayensis</t>
+          <t>Cohniella nuda subsp. stipitata</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Connarus monocarpus</t>
+          <t>Cohniella nuda</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Rourea minor</t>
-        </is>
-      </c>
-      <c r="D86" t="b">
-        <v>0</v>
+          <t>Trichocentrum nudum</t>
+        </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Connarus williamsii</t>
+          <t>Colubrina glandulosa</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Connarus williamsii</t>
+          <t>Colubrina glandulosa</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Connarus williamsii</t>
-        </is>
-      </c>
-      <c r="D87" t="b">
-        <v>0</v>
+          <t>Colubrina glandulosa</t>
+        </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Costus guanaiensis</t>
+          <t>Commelina erecta subsp. erecta</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Costus guanaiensis</t>
+          <t>Commelina erecta subsp. erecta</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Costus guanaiensis</t>
-        </is>
-      </c>
-      <c r="D88" t="b">
-        <v>0</v>
+          <t>Commelina erecta subsp. erecta</t>
+        </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Coussapoa asperifolia</t>
+          <t>Connarus lentiginosus</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Coussapoa asperifolia</t>
+          <t>Connarus lentiginosus</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Coussapoa asperifolia</t>
-        </is>
-      </c>
-      <c r="D89" t="b">
-        <v>0</v>
+          <t>Connarus lentiginosus</t>
+        </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Coussarea impetiolaris</t>
+          <t>Connarus monocarpus</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Coussarea impetiolaris</t>
+          <t>Connarus monocarpus</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Coussarea impetiolaris</t>
-        </is>
-      </c>
-      <c r="D90" t="b">
-        <v>0</v>
+          <t>Rourea minor</t>
+        </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Coussarea loftonii</t>
+          <t>Connarus monocarpus subsp. malayensis</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Coussarea loftonii</t>
+          <t>Connarus monocarpus</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Coussarea loftonii</t>
-        </is>
-      </c>
-      <c r="D91" t="b">
-        <v>0</v>
+          <t>Rourea minor</t>
+        </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Crinum bulbispermum</t>
+          <t>Connarus williamsii</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Crinum bulbispermum</t>
+          <t>Connarus williamsii</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Crinum bulbispermum</t>
-        </is>
-      </c>
-      <c r="D92" t="b">
-        <v>0</v>
+          <t>Connarus williamsii</t>
+        </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Critonia billbergiana</t>
+          <t>Cosmibuena grandiflora</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Critonia billbergiana</t>
+          <t>Cosmibuena grandiflora</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Critonia billbergiana</t>
-        </is>
-      </c>
-      <c r="D93" t="b">
-        <v>0</v>
+          <t>Cosmibuena grandiflora</t>
+        </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Ctenitis ampla</t>
+          <t>Costus guanaiensis</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Ctenitis ampla</t>
+          <t>Costus guanaiensis</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Ctenitis ampla</t>
-        </is>
-      </c>
-      <c r="D94" t="b">
-        <v>0</v>
+          <t>Costus guanaiensis</t>
+        </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Cuphea elliptica</t>
+          <t>Coussapoa asperifolia</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Cuphea elliptica</t>
+          <t>Coussapoa asperifolia</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Cuphea elliptica</t>
-        </is>
-      </c>
-      <c r="D95" t="b">
-        <v>0</v>
+          <t>Coussapoa asperifolia</t>
+        </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Cyathea divergens</t>
+          <t>Coussarea impetiolaris</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Cyathea divergens</t>
+          <t>Coussarea impetiolaris</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Cyathea divergens</t>
-        </is>
-      </c>
-      <c r="D96" t="b">
-        <v>0</v>
+          <t>Coussarea impetiolaris</t>
+        </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Cyathula achyranthoides</t>
+          <t>Coussarea loftonii</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Cyathula achyranthoides</t>
+          <t>Coussarea loftonii</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Cyathula achyranthoides</t>
-        </is>
-      </c>
-      <c r="D97" t="b">
-        <v>0</v>
+          <t>Coussarea loftonii</t>
+        </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Cyperus chorisanthos</t>
+          <t>Crinum bulbispermum</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Cyperus chorisanthus</t>
+          <t>Crinum bulbispermum</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Cyperus chorisanthus</t>
-        </is>
-      </c>
-      <c r="D98" t="b">
-        <v>0</v>
+          <t>Crinum bulbispermum</t>
+        </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Cyperus conservator-davidii</t>
+          <t>Critonia billbergiana</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Cyperus conservator-davidii</t>
+          <t>Critonia billbergiana</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Cyperus conservator-davidii</t>
-        </is>
-      </c>
-      <c r="D99" t="b">
-        <v>0</v>
+          <t>Critonia billbergiana</t>
+        </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Dalbergia ecastaphyllum</t>
+          <t>Ctenitis ampla</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Dalbergia ecastaphyllum</t>
+          <t>Ctenitis ampla</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Dalbergia ecastaphyllum</t>
-        </is>
-      </c>
-      <c r="D100" t="b">
-        <v>0</v>
+          <t>Ctenitis ampla</t>
+        </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Dalbergia retusa var. retusa</t>
+          <t>Cuphea elliptica</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Dalbergia retusa var. retusa</t>
+          <t>Cuphea elliptica</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Dalbergia retusa var. retusa</t>
-        </is>
-      </c>
-      <c r="D101" t="b">
-        <v>0</v>
+          <t>Cuphea elliptica</t>
+        </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Damburneya purpurea</t>
+          <t>Cyathea divergens</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Damburneya purpurea</t>
+          <t>Cyathea divergens</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Damburneya purpurea</t>
-        </is>
-      </c>
-      <c r="D102" t="b">
-        <v>0</v>
+          <t>Cyathea divergens</t>
+        </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Davilla kunthii</t>
+          <t>Cyathula achyranthoides</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Davilla kunthii</t>
+          <t>Cyathula achyranthoides</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Davilla kunthii</t>
-        </is>
-      </c>
-      <c r="D103" t="b">
-        <v>0</v>
+          <t>Cyathula achyranthoides</t>
+        </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Davilla rugosa</t>
+          <t>Cyperus chorisanthos</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Davilla rugosa</t>
+          <t>Cyperus chorisanthus</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Davilla rugosa</t>
-        </is>
-      </c>
-      <c r="D104" t="b">
-        <v>0</v>
+          <t>Cyperus chorisanthus</t>
+        </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Desmodium heterocarpon</t>
+          <t>Cyperus conservator-davidii</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Desmodium heterocarpon</t>
+          <t>Cyperus conservator-davidii</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Grona heterocarpos</t>
-        </is>
-      </c>
-      <c r="D105" t="b">
-        <v>0</v>
+          <t>Cyperus conservator-davidii</t>
+        </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Desmoncus panamensis</t>
+          <t>Dalbergia ecastaphyllum</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Desmoncus panamensis</t>
-        </is>
-      </c>
-      <c r="D106" t="b">
-        <v>0</v>
+          <t>Dalbergia ecastaphyllum</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Dalbergia ecastaphyllum</t>
+        </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Didymoglossum curtii</t>
+          <t>Dalbergia retusa var. retusa</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Didymoglossum curtii</t>
+          <t>Dalbergia retusa var. retusa</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Trichomanes curtii</t>
-        </is>
-      </c>
-      <c r="D107" t="b">
-        <v>0</v>
+          <t>Dalbergia retusa var. retusa</t>
+        </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Didymoglossum membranaceum</t>
+          <t>Damburneya purpurea</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Didymoglossum membranaceum</t>
+          <t>Damburneya purpurea</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Trichomanes membranaceum</t>
-        </is>
-      </c>
-      <c r="D108" t="b">
-        <v>0</v>
+          <t>Damburneya purpurea</t>
+        </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Dimerocostus strobilaceus</t>
+          <t>Davilla kunthii</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Dimerocostus strobilaceus</t>
+          <t>Davilla kunthii</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Dimerocostus strobilaceus</t>
-        </is>
-      </c>
-      <c r="D109" t="b">
-        <v>0</v>
+          <t>Davilla kunthii</t>
+        </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Dioscorea pubescens</t>
+          <t>Davilla rugosa</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Dioscorea pubescens</t>
+          <t>Davilla rugosa</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Dioscorea pubescens</t>
-        </is>
-      </c>
-      <c r="D110" t="b">
-        <v>0</v>
+          <t>Davilla rugosa</t>
+        </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Diplazium cristatum</t>
+          <t>Desmodium heterocarpon</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Diplazium cristatum</t>
+          <t>Desmodium heterocarpon</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Diplazium cristatum</t>
-        </is>
-      </c>
-      <c r="D111" t="b">
-        <v>0</v>
+          <t>Grona heterocarpos</t>
+        </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Disciphania ernstii var. ernstii</t>
+          <t>Desmoncus panamensis</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Disciphania ernstii var. ernstii</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Disciphania ernstii var. ernstii</t>
-        </is>
-      </c>
-      <c r="D112" t="b">
-        <v>0</v>
+          <t>Desmoncus panamensis</t>
+        </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Doliocarpus dentatus subsp. dentatus</t>
+          <t>Didymoglossum curtii</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Doliocarpus dentatus subsp. dentatus</t>
+          <t>Didymoglossum curtii</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Doliocarpus dentatus subsp. dentatus</t>
-        </is>
-      </c>
-      <c r="D113" t="b">
-        <v>0</v>
+          <t>Trichomanes curtii</t>
+        </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Drypetes variabilis</t>
+          <t>Didymoglossum membranaceum</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Drypetes variabilis</t>
+          <t>Didymoglossum membranaceum</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Drypetes variabilis</t>
-        </is>
-      </c>
-      <c r="D114" t="b">
-        <v>0</v>
+          <t>Trichomanes membranaceum</t>
+        </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Elaphoglossum hieracioides</t>
+          <t>Dimerocostus strobilaceus</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Elaphoglossum hieracioides</t>
+          <t>Dimerocostus strobilaceus</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Elaphoglossum hieracioides</t>
-        </is>
-      </c>
-      <c r="D115" t="b">
-        <v>0</v>
+          <t>Dimerocostus strobilaceus</t>
+        </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Eleocharis interstincta</t>
+          <t>Dioscorea pubescens</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Eleocharis interstincta</t>
+          <t>Dioscorea pubescens</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Eleocharis interstincta</t>
-        </is>
-      </c>
-      <c r="D116" t="b">
-        <v>0</v>
+          <t>Dioscorea pubescens</t>
+        </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Eleutheranthera ruderalis</t>
+          <t>Diplazium cristatum</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Eleutheranthera ruderalis</t>
+          <t>Diplazium cristatum</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Eleutheranthera ruderalis</t>
-        </is>
-      </c>
-      <c r="D117" t="b">
-        <v>0</v>
+          <t>Diplazium cristatum</t>
+        </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Emilia sonchifolia var. sonchifolia</t>
+          <t>Disciphania ernstii var. ernstii</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Emilia sonchifolia var. sonchifolia</t>
+          <t>Disciphania ernstii var. ernstii</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Emilia sonchifolia var. sonchifolia</t>
-        </is>
-      </c>
-      <c r="D118" t="b">
-        <v>0</v>
+          <t>Disciphania ernstii var. ernstii</t>
+        </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Encyclia cordigera</t>
+          <t>Doliocarpus dentatus subsp. dentatus</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Encyclia cordigera</t>
+          <t>Doliocarpus dentatus subsp. dentatus</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Encyclia cordigera</t>
-        </is>
-      </c>
-      <c r="D119" t="b">
-        <v>0</v>
+          <t>Doliocarpus dentatus subsp. dentatus</t>
+        </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Entada rheedii</t>
+          <t>Drypetes variabilis</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Entada rheedei</t>
+          <t>Drypetes variabilis</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Entada rheedei</t>
-        </is>
-      </c>
-      <c r="D120" t="b">
-        <v>0</v>
+          <t>Drypetes variabilis</t>
+        </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Eugenia chepensis</t>
+          <t>Elaphoglossum hieracioides</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Eugenia chepensis</t>
+          <t>Elaphoglossum hieracioides</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Eugenia chepensis</t>
-        </is>
-      </c>
-      <c r="D121" t="b">
-        <v>0</v>
+          <t>Elaphoglossum hieracioides</t>
+        </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Eugenia hiraeifolia</t>
+          <t>Elaphoglossum peltatum</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Eugenia hiraeifolia</t>
+          <t>Elaphoglossum peltatum</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Eugenia hiraeifolia</t>
-        </is>
-      </c>
-      <c r="D122" t="b">
-        <v>0</v>
+          <t>Elaphoglossum peltatum</t>
+        </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Eugenia octopleura</t>
+          <t>Eleocharis interstincta</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Eugenia octopleura</t>
+          <t>Eleocharis interstincta</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Eugenia octopleura</t>
-        </is>
-      </c>
-      <c r="D123" t="b">
-        <v>0</v>
+          <t>Eleocharis interstincta</t>
+        </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Eugenia salamensis</t>
+          <t>Eleutheranthera ruderalis</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Eugenia salamensis</t>
+          <t>Eleutheranthera ruderalis</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Eugenia salamensis</t>
-        </is>
-      </c>
-      <c r="D124" t="b">
-        <v>0</v>
+          <t>Eleutheranthera ruderalis</t>
+        </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Ficus americana subsp. americana</t>
+          <t>Emilia sonchifolia var. sonchifolia</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Ficus americana subsp. americana</t>
+          <t>Emilia sonchifolia var. sonchifolia</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Ficus americana subsp. americana</t>
-        </is>
-      </c>
-      <c r="D125" t="b">
-        <v>0</v>
+          <t>Emilia sonchifolia var. sonchifolia</t>
+        </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Ficus crassinervia</t>
+          <t>Encyclia cordigera</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Ficus crassinervia</t>
+          <t>Encyclia cordigera</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Ficus crassinervia</t>
-        </is>
-      </c>
-      <c r="D126" t="b">
-        <v>0</v>
+          <t>Encyclia cordigera</t>
+        </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Ficus crassiuscula</t>
+          <t>Entada rheedii</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Ficus crassiuscula</t>
+          <t>Entada rheedei</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Ficus crassiuscula</t>
-        </is>
-      </c>
-      <c r="D127" t="b">
-        <v>0</v>
+          <t>Entada rheedei</t>
+        </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Ficus hartwegii</t>
+          <t>Epiphyllum hookeri</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Ficus hartwegii</t>
+          <t>Epiphyllum hookeri</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Ficus hartwegii</t>
-        </is>
-      </c>
-      <c r="D128" t="b">
-        <v>0</v>
+          <t>Epiphyllum hookeri</t>
+        </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Fissicalyx fendleri</t>
+          <t>Eugenia chepensis</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Fissicalyx fendleri</t>
+          <t>Eugenia chepensis</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Fissicalyx fendleri</t>
-        </is>
-      </c>
-      <c r="D129" t="b">
-        <v>0</v>
+          <t>Eugenia chepensis</t>
+        </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Forsteronia spicata</t>
+          <t>Eugenia hiraeifolia</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Forsteronia spicata</t>
+          <t>Eugenia hiraeifolia</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Forsteronia spicata</t>
-        </is>
-      </c>
-      <c r="D130" t="b">
-        <v>0</v>
+          <t>Eugenia hiraeifolia</t>
+        </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Fridericia japurensis</t>
+          <t>Eugenia octopleura</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Fridericia japurensis</t>
+          <t>Eugenia octopleura</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Fridericia japurensis</t>
-        </is>
-      </c>
-      <c r="D131" t="b">
-        <v>0</v>
+          <t>Eugenia octopleura</t>
+        </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Garcinia recondita</t>
-        </is>
-      </c>
-      <c r="D132" t="b">
-        <v>0</v>
+          <t>Eugenia salamensis</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Eugenia salamensis</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Eugenia salamensis</t>
+        </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Geonoma cuneata subsp. indivisa</t>
+          <t>Ficus americana subsp. americana</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Geonoma cuneata subsp. indivisa</t>
+          <t>Ficus americana subsp. americana</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Geonoma cuneata subsp. indivisa</t>
-        </is>
-      </c>
-      <c r="D133" t="b">
-        <v>0</v>
+          <t>Ficus americana subsp. americana</t>
+        </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Geonoma cuneata var. cuneata</t>
+          <t>Ficus crassinervia</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Geonoma cuneata subsp. cuneata</t>
+          <t>Ficus crassinervia</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Geonoma cuneata subsp. cuneata</t>
-        </is>
-      </c>
-      <c r="D134" t="b">
-        <v>0</v>
+          <t>Ficus crassinervia</t>
+        </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Geonoma interrupta</t>
+          <t>Ficus crassiuscula</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Geonoma interrupta</t>
+          <t>Ficus crassiuscula</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Geonoma interrupta</t>
-        </is>
-      </c>
-      <c r="D135" t="b">
-        <v>0</v>
+          <t>Ficus crassiuscula</t>
+        </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Geonoma interrupta subsp. magnifica</t>
+          <t>Ficus hartwegii</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Geonoma interrupta subsp. magnifica</t>
+          <t>Ficus hartwegii</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Geonoma interrupta subsp. magnifica</t>
-        </is>
-      </c>
-      <c r="D136" t="b">
-        <v>0</v>
+          <t>Ficus hartwegii</t>
+        </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Geonoma pinnatifrons</t>
+          <t>Fissicalyx fendleri</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Geonoma pinnatifrons</t>
+          <t>Fissicalyx fendleri</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Geonoma pinnatifrons</t>
-        </is>
-      </c>
-      <c r="D137" t="b">
-        <v>0</v>
+          <t>Fissicalyx fendleri</t>
+        </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Geonoma pinnatifrons subsp. binervia</t>
+          <t>Forsteronia spicata</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Geonoma pinnatifrons subsp. binervia</t>
+          <t>Forsteronia spicata</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Geonoma pinnatifrons subsp. binervia</t>
-        </is>
-      </c>
-      <c r="D138" t="b">
-        <v>0</v>
+          <t>Forsteronia spicata</t>
+        </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Gliricidia sepium</t>
+          <t>Fridericia japurensis</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Gliricidia sepium</t>
+          <t>Fridericia japurensis</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Gliricidia sepium</t>
-        </is>
-      </c>
-      <c r="D139" t="b">
-        <v>0</v>
+          <t>Fridericia japurensis</t>
+        </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Gongora pleiochroma</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Gongora pleiochroma</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Gongora pleiochroma</t>
-        </is>
-      </c>
-      <c r="D140" t="b">
-        <v>0</v>
+          <t>Garcinia recondita</t>
+        </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Gonolobus inaequalis</t>
+          <t>Geonoma cuneata subsp. indivisa</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Gonolobus inaequalis</t>
+          <t>Geonoma cuneata subsp. indivisa</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Gonolobus inaequalis</t>
-        </is>
-      </c>
-      <c r="D141" t="b">
-        <v>0</v>
+          <t>Geonoma cuneata subsp. indivisa</t>
+        </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Gouania croatii</t>
+          <t>Geonoma cuneata var. cuneata</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Gouania croatii</t>
+          <t>Geonoma cuneata subsp. cuneata</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Gouania croatii</t>
-        </is>
-      </c>
-      <c r="D142" t="b">
-        <v>0</v>
+          <t>Geonoma cuneata subsp. cuneata</t>
+        </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Guadua amplexifolia</t>
+          <t>Geonoma interrupta</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Guadua amplexifolia</t>
+          <t>Geonoma interrupta</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Guadua amplexifolia</t>
-        </is>
-      </c>
-      <c r="D143" t="b">
-        <v>0</v>
+          <t>Geonoma interrupta</t>
+        </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Guapira costaricana</t>
+          <t>Geonoma interrupta subsp. magnifica</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Guapira costaricana</t>
+          <t>Geonoma interrupta subsp. magnifica</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Guapira costaricana</t>
-        </is>
-      </c>
-      <c r="D144" t="b">
-        <v>0</v>
+          <t>Geonoma interrupta subsp. magnifica</t>
+        </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Guarea kunthiana</t>
+          <t>Geonoma pinnatifrons</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Guarea kunthiana</t>
+          <t>Geonoma pinnatifrons</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Guarea kunthiana</t>
-        </is>
-      </c>
-      <c r="D145" t="b">
-        <v>0</v>
+          <t>Geonoma pinnatifrons</t>
+        </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Guarea tonduzii</t>
+          <t>Geonoma pinnatifrons subsp. binervia</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Guarea tonduzii</t>
+          <t>Geonoma pinnatifrons subsp. binervia</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Guarea tonduzii</t>
-        </is>
-      </c>
-      <c r="D146" t="b">
-        <v>0</v>
+          <t>Geonoma pinnatifrons subsp. binervia</t>
+        </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Guarianthe skinneri</t>
+          <t>Gliricidia sepium</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Guarianthe skinneri</t>
+          <t>Gliricidia sepium</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Guarianthe skinneri</t>
-        </is>
-      </c>
-      <c r="D147" t="b">
-        <v>0</v>
+          <t>Gliricidia sepium</t>
+        </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Guazuma invira</t>
+          <t>Gongora pleiochroma</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Guazuma invira</t>
+          <t>Gongora pleiochroma</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Guazuma invira</t>
-        </is>
-      </c>
-      <c r="D148" t="b">
-        <v>0</v>
+          <t>Gongora pleiochroma</t>
+        </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Guazuma ulmifolia var. tomentella</t>
+          <t>Gonolobus inaequalis</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Guazuma ulmifolia var. tomentella</t>
+          <t>Gonolobus inaequalis</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Guazuma invira</t>
-        </is>
-      </c>
-      <c r="D149" t="b">
-        <v>0</v>
+          <t>Gonolobus inaequalis</t>
+        </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Gustavia angustifolia</t>
+          <t>Gouania croatii</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Gustavia angustifolia</t>
+          <t>Gouania croatii</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Gustavia angustifolia</t>
-        </is>
-      </c>
-      <c r="D150" t="b">
-        <v>0</v>
+          <t>Gouania croatii</t>
+        </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Guzmania lingulata var. concolor</t>
+          <t>Guadua amplexifolia</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Guzmania lingulata var. concolor</t>
+          <t>Guadua amplexifolia</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Guzmania lingulata var. minor</t>
-        </is>
-      </c>
-      <c r="D151" t="b">
-        <v>0</v>
+          <t>Guadua amplexifolia</t>
+        </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Habenaria trifida</t>
+          <t>Guapira costaricana</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Habenaria trifida</t>
+          <t>Guapira costaricana</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Habenaria trifida</t>
-        </is>
-      </c>
-      <c r="D152" t="b">
-        <v>0</v>
+          <t>Guapira costaricana</t>
+        </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Hampea albipetala</t>
+          <t>Guarea kunthiana</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Hampea albipetala</t>
+          <t>Guarea kunthiana</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Hampea albipetala</t>
-        </is>
-      </c>
-      <c r="D153" t="b">
-        <v>0</v>
+          <t>Guarea kunthiana</t>
+        </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Handroanthus ochraceus</t>
+          <t>Guarea tonduzii</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Handroanthus ochraceus</t>
+          <t>Guarea tonduzii</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Handroanthus ochraceus</t>
-        </is>
-      </c>
-      <c r="D154" t="b">
-        <v>0</v>
+          <t>Guarea tonduzii</t>
+        </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Heisteria acuminata</t>
+          <t>Guarianthe skinneri</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Heisteria acuminata</t>
+          <t>Guarianthe skinneri</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Heisteria acuminata</t>
-        </is>
-      </c>
-      <c r="D155" t="b">
-        <v>0</v>
+          <t>Guarianthe skinneri</t>
+        </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Heisteria scandens</t>
+          <t>Guazuma invira</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Heisteria scandens</t>
+          <t>Guazuma invira</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Heisteria scandens</t>
-        </is>
-      </c>
-      <c r="D156" t="b">
-        <v>0</v>
+          <t>Guazuma invira</t>
+        </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Heliconia psittacorum</t>
+          <t>Guazuma ulmifolia var. tomentella</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Heliconia psittacorum</t>
+          <t>Guazuma ulmifolia var. tomentella</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Heliconia psittacorum</t>
-        </is>
-      </c>
-      <c r="D157" t="b">
-        <v>0</v>
+          <t>Guazuma invira</t>
+        </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Heliconia subulata</t>
+          <t>Gustavia angustifolia</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Heliconia subulata</t>
+          <t>Gustavia angustifolia</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Heliconia subulata</t>
-        </is>
-      </c>
-      <c r="D158" t="b">
-        <v>0</v>
+          <t>Gustavia angustifolia</t>
+        </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Heteropterys laurifolia</t>
+          <t>Guzmania lingulata var. concolor</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Heteropterys laurifolia</t>
+          <t>Guzmania lingulata var. concolor</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Heteropterys laurifolia</t>
-        </is>
-      </c>
-      <c r="D159" t="b">
-        <v>0</v>
+          <t>Guzmania lingulata var. minor</t>
+        </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Hiraea fagifolia</t>
+          <t>Habenaria trifida</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Hiraea fagifolia</t>
+          <t>Habenaria trifida</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Hiraea fagifolia</t>
-        </is>
-      </c>
-      <c r="D160" t="b">
-        <v>0</v>
+          <t>Habenaria trifida</t>
+        </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Hiraea grandifolia</t>
+          <t>Hampea albipetala</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Hiraea grandifolia</t>
+          <t>Hampea albipetala</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Hiraea grandifolia</t>
-        </is>
-      </c>
-      <c r="D161" t="b">
-        <v>0</v>
+          <t>Hampea albipetala</t>
+        </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Hirtella racemosa</t>
+          <t>Handroanthus ochraceus</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Hirtella racemosa</t>
+          <t>Handroanthus ochraceus</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Hirtella racemosa</t>
-        </is>
-      </c>
-      <c r="D162" t="b">
-        <v>0</v>
+          <t>Handroanthus ochraceus</t>
+        </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Hirtella triandra</t>
+          <t>Heisteria acuminata</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Hirtella triandra</t>
+          <t>Heisteria acuminata</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Hirtella triandra</t>
-        </is>
-      </c>
-      <c r="D163" t="b">
-        <v>0</v>
+          <t>Heisteria acuminata</t>
+        </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Hoffmannia longipetiolata</t>
+          <t>Heisteria scandens</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Hoffmannia longepetiolata</t>
+          <t>Heisteria scandens</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Hoffmannia longepetiolata</t>
-        </is>
-      </c>
-      <c r="D164" t="b">
-        <v>0</v>
+          <t>Heisteria scandens</t>
+        </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Hypolytrum longifolium</t>
+          <t>Heliconia psittacorum</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Hypolytrum longifolium</t>
+          <t>Heliconia psittacorum</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Hypolytrum longifolium</t>
-        </is>
-      </c>
-      <c r="D165" t="b">
-        <v>0</v>
+          <t>Heliconia psittacorum</t>
+        </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Ichnanthus pallens</t>
+          <t>Heliconia subulata</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Ichnanthus pallens</t>
+          <t>Heliconia subulata</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Ichnanthus pallens</t>
-        </is>
-      </c>
-      <c r="D166" t="b">
-        <v>0</v>
+          <t>Heliconia subulata</t>
+        </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Imperata contracta</t>
+          <t>Heteropterys laurifolia</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Imperata contracta</t>
+          <t>Heteropterys laurifolia</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Imperata contracta</t>
-        </is>
-      </c>
-      <c r="D167" t="b">
-        <v>0</v>
+          <t>Heteropterys laurifolia</t>
+        </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Indigofera trita</t>
+          <t>Hiraea fagifolia</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Indigofera trita</t>
+          <t>Hiraea fagifolia</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Indigofera trita</t>
-        </is>
-      </c>
-      <c r="D168" t="b">
-        <v>0</v>
+          <t>Hiraea fagifolia</t>
+        </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Inga alba</t>
+          <t>Hiraea grandifolia</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Inga alba</t>
+          <t>Hiraea grandifolia</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Inga alba</t>
-        </is>
-      </c>
-      <c r="D169" t="b">
-        <v>0</v>
+          <t>Hiraea grandifolia</t>
+        </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Inga coruscans</t>
+          <t>Hirtella racemosa</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Inga coruscans</t>
+          <t>Hirtella racemosa</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Inga coruscans</t>
-        </is>
-      </c>
-      <c r="D170" t="b">
-        <v>0</v>
+          <t>Hirtella racemosa</t>
+        </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Inga edulis</t>
+          <t>Hirtella triandra</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Inga edulis</t>
+          <t>Hirtella triandra</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Inga edulis</t>
-        </is>
-      </c>
-      <c r="D171" t="b">
-        <v>0</v>
+          <t>Hirtella triandra</t>
+        </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Inga multijuga</t>
+          <t>Hoffmannia longipetiolata</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Inga multijuga</t>
+          <t>Hoffmannia longepetiolata</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Inga multijuga</t>
-        </is>
-      </c>
-      <c r="D172" t="b">
-        <v>0</v>
+          <t>Hoffmannia longepetiolata</t>
+        </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Inga nobilis</t>
+          <t>Hypolytrum longifolium</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Inga nobilis</t>
+          <t>Hypolytrum longifolium</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Inga nobilis</t>
-        </is>
-      </c>
-      <c r="D173" t="b">
-        <v>0</v>
+          <t>Hypolytrum longifolium</t>
+        </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Inga thibaudiana</t>
+          <t>Ichnanthus pallens</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Inga thibaudiana</t>
+          <t>Ichnanthus pallens</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Inga thibaudiana</t>
-        </is>
-      </c>
-      <c r="D174" t="b">
-        <v>0</v>
+          <t>Ichnanthus pallens</t>
+        </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Ipomoea anisomeres</t>
+          <t>Imperata contracta</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Ipomoea anisomeres</t>
+          <t>Imperata contracta</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Ipomoea anisomeres</t>
-        </is>
-      </c>
-      <c r="D175" t="b">
-        <v>0</v>
+          <t>Imperata contracta</t>
+        </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Ischnosiphon arouma</t>
+          <t>Indigofera trita</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Ischnosiphon arouma</t>
+          <t>Indigofera trita</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Ischnosiphon arouma</t>
-        </is>
-      </c>
-      <c r="D176" t="b">
-        <v>0</v>
+          <t>Indigofera trita</t>
+        </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Ischnosiphon leucophaeus</t>
+          <t>Inga alba</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Ischnosiphon leucophaeus</t>
+          <t>Inga alba</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Ischnosiphon leucophaeus</t>
-        </is>
-      </c>
-      <c r="D177" t="b">
-        <v>0</v>
+          <t>Inga alba</t>
+        </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Isertia haenkeana var. haenkeana</t>
+          <t>Inga coruscans</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Isertia haenkeana var. haenkeana</t>
+          <t>Inga coruscans</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Isertia haenkeana var. haenkeana</t>
-        </is>
-      </c>
-      <c r="D178" t="b">
-        <v>0</v>
+          <t>Inga coruscans</t>
+        </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Ixora coccinea var. coccinea</t>
+          <t>Inga edulis</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Ixora coccinea var. coccinea</t>
+          <t>Inga edulis</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Ixora coccinea var. coccinea</t>
-        </is>
-      </c>
-      <c r="D179" t="b">
-        <v>0</v>
+          <t>Inga edulis</t>
+        </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Jacaranda copaia</t>
+          <t>Inga multijuga</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Jacaranda copaia</t>
+          <t>Inga multijuga</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Jacaranda copaia</t>
-        </is>
-      </c>
-      <c r="D180" t="b">
-        <v>0</v>
+          <t>Inga multijuga</t>
+        </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Justicia secunda</t>
+          <t>Inga nobilis</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Justicia secunda</t>
+          <t>Inga nobilis</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Dianthera secunda</t>
-        </is>
-      </c>
-      <c r="D181" t="b">
-        <v>0</v>
+          <t>Inga nobilis</t>
+        </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Klarobelia anomala</t>
+          <t>Inga thibaudiana</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Klarobelia anomala</t>
+          <t>Inga thibaudiana</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Klarobelia anomala</t>
-        </is>
-      </c>
-      <c r="D182" t="b">
-        <v>0</v>
+          <t>Inga thibaudiana</t>
+        </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Kyllinga</t>
+          <t>Ipomoea anisomeres</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Kyllinga</t>
+          <t>Ipomoea anisomeres</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Cyperus</t>
-        </is>
-      </c>
-      <c r="D183" t="b">
-        <v>0</v>
+          <t>Ipomoea anisomeres</t>
+        </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Kyllinga brevifolia var. leiolepis</t>
+          <t>Ischnosiphon arouma</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Kyllinga brevifolia var. leiolepis</t>
+          <t>Ischnosiphon arouma</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Cyperus brevifolioides</t>
-        </is>
-      </c>
-      <c r="D184" t="b">
-        <v>0</v>
+          <t>Ischnosiphon arouma</t>
+        </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Lantana hispida</t>
+          <t>Ischnosiphon leucophaeus</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Lantana hispida</t>
+          <t>Ischnosiphon leucophaeus</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Lantana horrida subsp. horrida</t>
-        </is>
-      </c>
-      <c r="D185" t="b">
-        <v>0</v>
+          <t>Ischnosiphon leucophaeus</t>
+        </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Lantana horrida</t>
+          <t>Isertia haenkeana var. haenkeana</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Lantana horrida</t>
+          <t>Isertia haenkeana var. haenkeana</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Lantana horrida</t>
-        </is>
-      </c>
-      <c r="D186" t="b">
-        <v>0</v>
+          <t>Isertia haenkeana var. haenkeana</t>
+        </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Lantana horrida subsp. horrida</t>
+          <t>Ixora coccinea var. coccinea</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Lantana horrida subsp. horrida</t>
+          <t>Ixora coccinea var. coccinea</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Lantana horrida subsp. horrida</t>
-        </is>
-      </c>
-      <c r="D187" t="b">
-        <v>0</v>
+          <t>Ixora coccinea var. coccinea</t>
+        </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Lantana scabrida</t>
+          <t>Jacaranda copaia</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Lantana scabrida</t>
+          <t>Jacaranda copaia</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Lantana scabrida</t>
-        </is>
-      </c>
-      <c r="D188" t="b">
-        <v>0</v>
+          <t>Jacaranda copaia</t>
+        </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Lantana strigocamara</t>
+          <t>Justicia secunda</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Lantana × strigocamara</t>
+          <t>Justicia secunda</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Lantana strigocamara</t>
-        </is>
-      </c>
-      <c r="D189" t="b">
-        <v>0</v>
+          <t>Dianthera secunda</t>
+        </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Lasiacis oaxacensis</t>
+          <t>Klarobelia anomala</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Lasiacis oaxacensis</t>
+          <t>Klarobelia anomala</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Lasiacis oaxacensis</t>
-        </is>
-      </c>
-      <c r="D190" t="b">
-        <v>0</v>
+          <t>Klarobelia anomala</t>
+        </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Leandra granatensis</t>
+          <t>Kyllinga</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Leandra granatensis</t>
+          <t>Kyllinga</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Miconia granatensis</t>
-        </is>
-      </c>
-      <c r="D191" t="b">
-        <v>0</v>
+          <t>Cyperus</t>
+        </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Leucaena trichodes</t>
+          <t>Kyllinga brevifolia var. leiolepis</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Leucaena trichodes</t>
+          <t>Kyllinga brevifolia var. leiolepis</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Leucaena trichodes</t>
-        </is>
-      </c>
-      <c r="D192" t="b">
-        <v>0</v>
+          <t>Cyperus brevifolioides</t>
+        </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Lindsaea stricta</t>
+          <t>Lantana hispida</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Lindsaea stricta</t>
+          <t>Lantana hispida</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Lindsaea stricta</t>
-        </is>
-      </c>
-      <c r="D193" t="b">
-        <v>0</v>
+          <t>Lantana horrida subsp. horrida</t>
+        </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Lindsaea stricta var. stricta</t>
+          <t>Lantana horrida</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Lindsaea stricta var. stricta</t>
+          <t>Lantana horrida</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Lindsaea stricta var. stricta</t>
-        </is>
-      </c>
-      <c r="D194" t="b">
-        <v>0</v>
+          <t>Lantana horrida</t>
+        </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Lockhartia micrantha</t>
+          <t>Lantana horrida subsp. horrida</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Lockhartia micrantha</t>
+          <t>Lantana horrida subsp. horrida</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Lockhartia micrantha</t>
-        </is>
-      </c>
-      <c r="D195" t="b">
-        <v>0</v>
+          <t>Lantana horrida subsp. horrida</t>
+        </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Lockhartia oerstedii</t>
+          <t>Lantana scabrida</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Lockhartia oerstedii</t>
+          <t>Lantana scabrida</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Lockhartia oerstedii</t>
-        </is>
-      </c>
-      <c r="D196" t="b">
-        <v>0</v>
+          <t>Lantana scabrida</t>
+        </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Ludwigia erecta</t>
+          <t>Lantana strigocamara</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Ludwigia erecta</t>
+          <t>Lantana × strigocamara</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Ludwigia erecta</t>
-        </is>
-      </c>
-      <c r="D197" t="b">
-        <v>0</v>
+          <t>Lantana strigocamara</t>
+        </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Luffa cylindrica</t>
+          <t>Lasiacis oaxacensis</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Luffa cylindrica</t>
+          <t>Lasiacis oaxacensis</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Cucumis melo</t>
-        </is>
-      </c>
-      <c r="D198" t="b">
-        <v>0</v>
+          <t>Lasiacis oaxacensis</t>
+        </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Luziola subintegra</t>
+          <t>Leandra granatensis</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Luziola subintegra</t>
+          <t>Leandra granatensis</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Luziola subintegra</t>
-        </is>
-      </c>
-      <c r="D199" t="b">
-        <v>0</v>
+          <t>Miconia granatensis</t>
+        </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Lycianthes maxonii var. maxonii</t>
+          <t>Leucaena trichodes</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Lycianthes maxonii var. maxonii</t>
+          <t>Leucaena trichodes</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Lycianthes maxonii var. maxonii</t>
-        </is>
-      </c>
-      <c r="D200" t="b">
-        <v>0</v>
+          <t>Leucaena trichodes</t>
+        </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Machaerium floribundum</t>
+          <t>Lindsaea stricta</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Machaerium floribundum</t>
+          <t>Lindsaea stricta</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Machaerium floribundum</t>
-        </is>
-      </c>
-      <c r="D201" t="b">
-        <v>0</v>
+          <t>Lindsaea stricta</t>
+        </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Malouetia quadricasarum</t>
+          <t>Lindsaea stricta var. stricta</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Malouetia quadricasarum</t>
+          <t>Lindsaea stricta var. stricta</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Malouetia quadricasarum</t>
-        </is>
-      </c>
-      <c r="D202" t="b">
-        <v>0</v>
+          <t>Lindsaea stricta var. stricta</t>
+        </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Mansoa hymenaea</t>
+          <t>Lockhartia micrantha</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Mansoa hymenaea</t>
+          <t>Lockhartia micrantha</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Mansoa hymenaea</t>
-        </is>
-      </c>
-      <c r="D203" t="b">
-        <v>0</v>
+          <t>Lockhartia micrantha</t>
+        </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Maquira guianensis</t>
+          <t>Lockhartia oerstedii</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Maquira guianensis</t>
+          <t>Lockhartia oerstedii</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Maquira guianensis</t>
-        </is>
-      </c>
-      <c r="D204" t="b">
-        <v>0</v>
+          <t>Lockhartia oerstedii</t>
+        </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Maripa nicaraguensis</t>
+          <t>Ludwigia erecta</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Maripa nicaraguensis</t>
+          <t>Ludwigia erecta</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Maripa nicaraguensis</t>
-        </is>
-      </c>
-      <c r="D205" t="b">
-        <v>0</v>
+          <t>Ludwigia erecta</t>
+        </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Masdevallia rolfeana</t>
+          <t>Luffa cylindrica</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Masdevallia rolfeana</t>
+          <t>Luffa cylindrica</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Masdevallia rolfeana</t>
-        </is>
-      </c>
-      <c r="D206" t="b">
-        <v>0</v>
+          <t>Cucumis melo</t>
+        </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Matayba scrobiculata</t>
+          <t>Luziola subintegra</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Matayba scrobiculata</t>
+          <t>Luziola subintegra</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Matayba scrobiculata</t>
-        </is>
-      </c>
-      <c r="D207" t="b">
-        <v>0</v>
+          <t>Luziola subintegra</t>
+        </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Matayba sylvatica</t>
+          <t>Lycianthes maxonii var. maxonii</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Matayba sylvatica</t>
+          <t>Lycianthes maxonii var. maxonii</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Matayba sylvatica</t>
-        </is>
-      </c>
-      <c r="D208" t="b">
-        <v>0</v>
+          <t>Lycianthes maxonii var. maxonii</t>
+        </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Melochia nodiflora</t>
+          <t>Machaerium floribundum</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Melochia nodiflora</t>
+          <t>Machaerium floribundum</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Melochia nodiflora</t>
-        </is>
-      </c>
-      <c r="D209" t="b">
-        <v>0</v>
+          <t>Machaerium floribundum</t>
+        </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Miconia barbinervis</t>
+          <t>Malouetia quadricasarum</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Miconia barbinervis</t>
+          <t>Malouetia quadricasarum</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Miconia barbinervis</t>
-        </is>
-      </c>
-      <c r="D210" t="b">
-        <v>0</v>
+          <t>Malouetia quadricasarum</t>
+        </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Miconia bubalina</t>
+          <t>Mansoa hymenaea</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Miconia bubalina</t>
+          <t>Mansoa hymenaea</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Miconia bubalina</t>
-        </is>
-      </c>
-      <c r="D211" t="b">
-        <v>0</v>
+          <t>Mansoa hymenaea</t>
+        </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Miconia impetiolaris</t>
+          <t>Maquira guianensis</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Miconia impetiolaris</t>
+          <t>Maquira guianensis</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Miconia impetiolaris</t>
-        </is>
-      </c>
-      <c r="D212" t="b">
-        <v>0</v>
+          <t>Maquira guianensis</t>
+        </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Miconia rubescens</t>
+          <t>Maripa nicaraguensis</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Miconia rubescens</t>
+          <t>Maripa nicaraguensis</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Miconia rubescens</t>
-        </is>
-      </c>
-      <c r="D213" t="b">
-        <v>0</v>
+          <t>Maripa nicaraguensis</t>
+        </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Miconia spicata</t>
+          <t>Masdevallia rolfeana</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Miconia spicata</t>
+          <t>Masdevallia rolfeana</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Miconia spicata</t>
-        </is>
-      </c>
-      <c r="D214" t="b">
-        <v>0</v>
+          <t>Masdevallia rolfeana</t>
+        </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Microgramma mauritiana</t>
+          <t>Matayba scrobiculata</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Microgramma mauritiana</t>
+          <t>Matayba scrobiculata</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Microgramma mauritiana</t>
-        </is>
-      </c>
-      <c r="D215" t="b">
-        <v>0</v>
+          <t>Matayba scrobiculata</t>
+        </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Mikania psilostachya</t>
+          <t>Matayba sylvatica</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Mikania psilostachya</t>
+          <t>Matayba sylvatica</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Mikania psilostachya</t>
-        </is>
-      </c>
-      <c r="D216" t="b">
-        <v>0</v>
+          <t>Matayba sylvatica</t>
+        </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Mimosa pigra var. pigra</t>
+          <t>Maxillariella acervata</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Mimosa pigra var. pigra</t>
+          <t>Maxillariella acervata</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Mimosa pigra var. pigra</t>
-        </is>
-      </c>
-      <c r="D217" t="b">
-        <v>0</v>
+          <t>Maxillaria acervata</t>
+        </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Mimosa pudica</t>
+          <t>Maxonia apiifolia</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Mimosa pudica</t>
+          <t>Maxonia apiifolia</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Mimosa pudica</t>
-        </is>
-      </c>
-      <c r="D218" t="b">
-        <v>0</v>
+          <t>Maxonia apiifolia</t>
+        </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Monstera adansonii</t>
+          <t>Melochia nodiflora</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Monstera adansonii</t>
+          <t>Melochia nodiflora</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Monstera adansonii</t>
-        </is>
-      </c>
-      <c r="D219" t="b">
-        <v>0</v>
+          <t>Melochia nodiflora</t>
+        </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Monteverdia sieberiana</t>
+          <t>Miconia barbinervis</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Monteverdia sieberiana</t>
+          <t>Miconia barbinervis</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Maytenus sieberiana</t>
-        </is>
-      </c>
-      <c r="D220" t="b">
-        <v>0</v>
+          <t>Miconia barbinervis</t>
+        </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Mouriri myrtilloides</t>
+          <t>Miconia bubalina</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Mouriri myrtilloides</t>
+          <t>Miconia bubalina</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Mouriri myrtilloides</t>
-        </is>
-      </c>
-      <c r="D221" t="b">
-        <v>0</v>
+          <t>Miconia bubalina</t>
+        </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Mucuna urens</t>
+          <t>Miconia impetiolaris</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Mucuna urens</t>
+          <t>Miconia impetiolaris</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Mucuna urens</t>
-        </is>
-      </c>
-      <c r="D222" t="b">
-        <v>0</v>
+          <t>Miconia impetiolaris</t>
+        </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Musa paradisiaca</t>
+          <t>Miconia rubescens</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Musa × paradisiaca</t>
+          <t>Miconia rubescens</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Musa paradisiaca</t>
-        </is>
-      </c>
-      <c r="D223" t="b">
-        <v>0</v>
+          <t>Miconia rubescens</t>
+        </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Nectandra latifolia</t>
+          <t>Miconia spicata</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Nectandra latifolia</t>
+          <t>Miconia spicata</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Damburneya purpurea</t>
-        </is>
-      </c>
-      <c r="D224" t="b">
-        <v>0</v>
+          <t>Miconia spicata</t>
+        </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Nectandra martinicensis</t>
+          <t>Microgramma mauritiana</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Nectandra martinicensis</t>
+          <t>Microgramma mauritiana</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Damburneya martinicensis</t>
-        </is>
-      </c>
-      <c r="D225" t="b">
-        <v>0</v>
+          <t>Microgramma mauritiana</t>
+        </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Neea pittieri</t>
+          <t>Mikania psilostachya</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Neea pittieri</t>
+          <t>Mikania psilostachya</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Neea pittieri</t>
-        </is>
-      </c>
-      <c r="D226" t="b">
-        <v>0</v>
+          <t>Mikania psilostachya</t>
+        </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Nephrolepis obtusiloba</t>
+          <t>Mimosa pigra var. pigra</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Nephrolepis obtusiloba</t>
+          <t>Mimosa pigra var. pigra</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Nephrolepis obtusiloba</t>
-        </is>
-      </c>
-      <c r="D227" t="b">
-        <v>0</v>
+          <t>Mimosa pigra var. pigra</t>
+        </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Odonellia hirtiflora</t>
+          <t>Mimosa pudica</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Odonellia hirtiflora</t>
+          <t>Mimosa pudica</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Odonellia hirtiflora</t>
-        </is>
-      </c>
-      <c r="D228" t="b">
-        <v>0</v>
+          <t>Mimosa pudica</t>
+        </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Odontocarya tamoides</t>
+          <t>Monstera adansonii</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Odontocarya tamoides</t>
+          <t>Monstera adansonii</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Odontocarya tamoides</t>
-        </is>
-      </c>
-      <c r="D229" t="b">
-        <v>0</v>
+          <t>Monstera adansonii</t>
+        </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Oncidium sphacelatum</t>
+          <t>Monteverdia sieberiana</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Oncidium sphacelatum</t>
+          <t>Monteverdia sieberiana</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Oncidium sphacelatum</t>
-        </is>
-      </c>
-      <c r="D230" t="b">
-        <v>0</v>
+          <t>Maytenus sieberiana</t>
+        </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Oncidium stenotis</t>
+          <t>Mouriri myrtilloides</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Oncidium stenotis</t>
+          <t>Mouriri myrtilloides</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Oncidium lineoligerum</t>
-        </is>
-      </c>
-      <c r="D231" t="b">
-        <v>0</v>
+          <t>Mouriri myrtilloides</t>
+        </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Ormosia coccinea var. subsimplex</t>
+          <t>Mucuna urens</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Ormosia coccinea var. subsimplex</t>
+          <t>Mucuna urens</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Ormosia subsimplex</t>
-        </is>
-      </c>
-      <c r="D232" t="b">
-        <v>0</v>
+          <t>Mucuna urens</t>
+        </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Oryctanthus callicarpus</t>
+          <t>Musa paradisiaca</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Oryctanthus callicarpus</t>
+          <t>Musa × paradisiaca</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Oryctanthus callicarpus</t>
-        </is>
-      </c>
-      <c r="D233" t="b">
-        <v>0</v>
+          <t>Musa paradisiaca</t>
+        </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Oryza sativa</t>
+          <t>Nectandra latifolia</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Oryza sativa</t>
+          <t>Nectandra latifolia</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Oryza sativa</t>
-        </is>
-      </c>
-      <c r="D234" t="b">
-        <v>0</v>
+          <t>Damburneya purpurea</t>
+        </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Pachyrhizus ferrugineus</t>
+          <t>Nectandra martinicensis</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Pachyrhizus ferrugineus</t>
+          <t>Nectandra martinicensis</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Pachyrhizus ferrugineus</t>
-        </is>
-      </c>
-      <c r="D235" t="b">
-        <v>0</v>
+          <t>Damburneya martinicensis</t>
+        </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Palicourea cuspidata</t>
+          <t>Neea pittieri</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Palicourea cuspidata</t>
+          <t>Neea pittieri</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Palicourea cuspidata</t>
-        </is>
-      </c>
-      <c r="D236" t="b">
-        <v>0</v>
+          <t>Neea pittieri</t>
+        </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Panicum altum</t>
+          <t>Nephrolepis obtusiloba</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Panicum altum</t>
+          <t>Nephrolepis obtusiloba</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Panicum altum</t>
-        </is>
-      </c>
-      <c r="D237" t="b">
-        <v>0</v>
+          <t>Nephrolepis obtusiloba</t>
+        </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Paspalum corcovadense</t>
+          <t>Odonellia hirtiflora</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Paspalum corcovadense</t>
+          <t>Odonellia hirtiflora</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Paspalum corcovadense</t>
-        </is>
-      </c>
-      <c r="D238" t="b">
-        <v>0</v>
+          <t>Odonellia hirtiflora</t>
+        </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Passiflora foetida</t>
+          <t>Odontocarya tamoides</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Passiflora foetida</t>
+          <t>Odontocarya tamoides</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Passiflora foetida</t>
-        </is>
-      </c>
-      <c r="D239" t="b">
-        <v>0</v>
+          <t>Odontocarya tamoides</t>
+        </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Passiflora megacoriacea</t>
+          <t>Oncidium sphacelatum</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Passiflora megacoriacea</t>
+          <t>Oncidium sphacelatum</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Passiflora megacoriacea</t>
-        </is>
-      </c>
-      <c r="D240" t="b">
-        <v>0</v>
+          <t>Oncidium sphacelatum</t>
+        </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Paullinia allenii</t>
+          <t>Oncidium stenotis</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Paullinia allenii</t>
+          <t>Oncidium stenotis</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Paullinia allenii</t>
-        </is>
-      </c>
-      <c r="D241" t="b">
-        <v>0</v>
+          <t>Oncidium lineoligerum</t>
+        </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Peperomia macrostachyos</t>
+          <t>Ormosia coccinea var. subsimplex</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Peperomia macrostachyos</t>
+          <t>Ormosia coccinea var. subsimplex</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Peperomia macrostachyos</t>
-        </is>
-      </c>
-      <c r="D242" t="b">
-        <v>0</v>
+          <t>Ormosia subsimplex</t>
+        </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Perebea angustifolia</t>
+          <t>Oryctanthus callicarpus</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Perebea angustifolia</t>
+          <t>Oryctanthus callicarpus</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Perebea angustifolia</t>
-        </is>
-      </c>
-      <c r="D243" t="b">
-        <v>0</v>
+          <t>Oryctanthus callicarpus</t>
+        </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Peristethium leptostachyum</t>
+          <t>Oryza sativa</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Peristethium leptostachyum</t>
+          <t>Oryza sativa</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Peristethium leptostachyum</t>
-        </is>
-      </c>
-      <c r="D244" t="b">
-        <v>0</v>
+          <t>Oryza sativa</t>
+        </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Peritassa pruinosa</t>
+          <t>Pachyrhizus ferrugineus</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Peritassa pruinosa</t>
+          <t>Pachyrhizus ferrugineus</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Peritassa pruinosa</t>
-        </is>
-      </c>
-      <c r="D245" t="b">
-        <v>0</v>
+          <t>Pachyrhizus ferrugineus</t>
+        </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Persicaria punctata</t>
+          <t>Palicourea cuspidata</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Persicaria punctata</t>
+          <t>Palicourea cuspidata</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Persicaria punctata</t>
-        </is>
-      </c>
-      <c r="D246" t="b">
-        <v>0</v>
+          <t>Palicourea cuspidata</t>
+        </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Philodendron brevispathum</t>
+          <t>Panicum altum</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Philodendron brevispathum</t>
+          <t>Panicum altum</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Philodendron brevispathum</t>
-        </is>
-      </c>
-      <c r="D247" t="b">
-        <v>0</v>
+          <t>Panicum altum</t>
+        </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Philodendron ernestii</t>
+          <t>Paspalum corcovadense</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Philodendron ernestii</t>
+          <t>Paspalum corcovadense</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Philodendron ernestii</t>
-        </is>
-      </c>
-      <c r="D248" t="b">
-        <v>0</v>
+          <t>Paspalum corcovadense</t>
+        </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Phytelephas macrocarpa</t>
+          <t>Passiflora foetida</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Phytelephas macrocarpa</t>
+          <t>Passiflora foetida</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Phytelephas macrocarpa</t>
-        </is>
-      </c>
-      <c r="D249" t="b">
-        <v>0</v>
+          <t>Passiflora foetida</t>
+        </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Piper albopunctulatissimum</t>
+          <t>Passiflora megacoriacea</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Piper albopunctulatissimum</t>
+          <t>Passiflora megacoriacea</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Piper albopunctulatissimum</t>
-        </is>
-      </c>
-      <c r="D250" t="b">
-        <v>0</v>
+          <t>Passiflora megacoriacea</t>
+        </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Piper amphioxys</t>
+          <t>Paullinia allenii</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Piper amphioxys</t>
+          <t>Paullinia allenii</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Piper amphioxys</t>
-        </is>
-      </c>
-      <c r="D251" t="b">
-        <v>0</v>
+          <t>Paullinia allenii</t>
+        </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Piper cabagranum</t>
+          <t>Peperomia elata</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Piper cabagranum</t>
+          <t>Peperomia elata</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Piper cabagranum</t>
-        </is>
-      </c>
-      <c r="D252" t="b">
-        <v>0</v>
+          <t>Peperomia elata</t>
+        </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Piper casimiranum</t>
+          <t>Peperomia macrostachyos</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Piper casimirianum</t>
+          <t>Peperomia macrostachyos</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Piper casimirianum</t>
-        </is>
-      </c>
-      <c r="D253" t="b">
-        <v>0</v>
+          <t>Peperomia macrostachyos</t>
+        </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Piper leptocladum</t>
+          <t>Peperomia portobellensis</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Piper leptocladum</t>
+          <t>Peperomia portobellensis</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Piper leptocladum</t>
-        </is>
-      </c>
-      <c r="D254" t="b">
-        <v>0</v>
+          <t>Peperomia portobellensis</t>
+        </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Piper lucigaudens</t>
+          <t>Perebea angustifolia</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Piper lucigaudens</t>
+          <t>Perebea angustifolia</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Piper lucigaudens</t>
-        </is>
-      </c>
-      <c r="D255" t="b">
-        <v>0</v>
+          <t>Perebea angustifolia</t>
+        </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Piper pseudovariabile</t>
+          <t>Peristethium leptostachyum</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Piper pseudovariabile</t>
+          <t>Peristethium leptostachyum</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Piper pseudovariabile</t>
-        </is>
-      </c>
-      <c r="D256" t="b">
-        <v>0</v>
+          <t>Peristethium leptostachyum</t>
+        </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Piper seducentifolium</t>
+          <t>Peritassa pruinosa</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Piper seducentifolium</t>
+          <t>Peritassa pruinosa</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Piper seducentifolium</t>
-        </is>
-      </c>
-      <c r="D257" t="b">
-        <v>0</v>
+          <t>Peritassa pruinosa</t>
+        </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Piper subnudispicum</t>
+          <t>Persicaria punctata</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Piper subnudispicum</t>
+          <t>Persicaria punctata</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Piper subnudispicum</t>
-        </is>
-      </c>
-      <c r="D258" t="b">
-        <v>0</v>
+          <t>Persicaria punctata</t>
+        </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Platymiscium darienense</t>
+          <t>Philodendron brevispathum</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Platymiscium darienense</t>
+          <t>Philodendron brevispathum</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Platymiscium darienense</t>
-        </is>
-      </c>
-      <c r="D259" t="b">
-        <v>0</v>
+          <t>Philodendron brevispathum</t>
+        </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Pleurothallis crocodiliceps</t>
+          <t>Philodendron ernestii</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Pleurothallis crocodiliceps</t>
+          <t>Philodendron ernestii</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Pleurothallis crocodiliceps</t>
-        </is>
-      </c>
-      <c r="D260" t="b">
-        <v>0</v>
+          <t>Philodendron ernestii</t>
+        </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Polybotrya polybotryoides</t>
+          <t>Philodendron radiatum</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Polybotrya polybotryoides</t>
+          <t>Philodendron radiatum</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Polybotrya polybotryoides</t>
-        </is>
-      </c>
-      <c r="D261" t="b">
-        <v>0</v>
+          <t>Philodendron radiatum</t>
+        </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Polystachya lineata</t>
+          <t>Philodendron rigidifolium</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Polystachya lineata</t>
+          <t>Philodendron rigidifolium</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Polystachya lineata</t>
-        </is>
-      </c>
-      <c r="D262" t="b">
-        <v>0</v>
+          <t>Philodendron rigidifolium</t>
+        </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Pourouma bicolor</t>
+          <t>Phytelephas macrocarpa</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Pourouma bicolor</t>
+          <t>Phytelephas macrocarpa</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Pourouma bicolor</t>
-        </is>
-      </c>
-      <c r="D263" t="b">
-        <v>0</v>
+          <t>Phytelephas macrocarpa</t>
+        </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Pouteria glomerata</t>
+          <t>Piper albopunctulatissimum</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Pouteria glomerata</t>
+          <t>Piper albopunctulatissimum</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Pouteria glomerata</t>
-        </is>
-      </c>
-      <c r="D264" t="b">
-        <v>0</v>
+          <t>Piper albopunctulatissimum</t>
+        </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Pouteria glomerata subsp. stylosa</t>
+          <t>Piper amphioxys</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Pouteria glomerata subsp. stylosa</t>
+          <t>Piper amphioxys</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Pouteria glomerata subsp. stylosa</t>
-        </is>
-      </c>
-      <c r="D265" t="b">
-        <v>0</v>
+          <t>Piper amphioxys</t>
+        </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Prestonia seemannii</t>
+          <t>Piper cabagranum</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Prestonia seemannii</t>
+          <t>Piper cabagranum</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Prestonia seemannii</t>
-        </is>
-      </c>
-      <c r="D266" t="b">
-        <v>0</v>
+          <t>Piper cabagranum</t>
+        </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Prionostemma duplex</t>
-        </is>
-      </c>
-      <c r="D267" t="b">
-        <v>0</v>
+          <t>Piper casimiranum</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Piper casimirianum</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Piper casimirianum</t>
+        </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Protium glabrum</t>
+          <t>Piper leptocladum</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Protium glabrum</t>
+          <t>Piper leptocladum</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Protium glabrum</t>
-        </is>
-      </c>
-      <c r="D268" t="b">
-        <v>0</v>
+          <t>Piper leptocladum</t>
+        </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Protium pittieri</t>
+          <t>Piper lucigaudens</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Protium pittieri</t>
+          <t>Piper lucigaudens</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Protium pittieri</t>
-        </is>
-      </c>
-      <c r="D269" t="b">
-        <v>0</v>
+          <t>Piper lucigaudens</t>
+        </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Protium tenuifolium</t>
+          <t>Piper pseudovariabile</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Protium tenuifolium</t>
+          <t>Piper pseudovariabile</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Protium tenuifolium</t>
-        </is>
-      </c>
-      <c r="D270" t="b">
-        <v>0</v>
+          <t>Piper pseudovariabile</t>
+        </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Psychotria involucrata</t>
+          <t>Piper seducentifolium</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Psychotria involucrata</t>
+          <t>Piper seducentifolium</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Palicourea tenerior</t>
-        </is>
-      </c>
-      <c r="D271" t="b">
-        <v>0</v>
+          <t>Piper seducentifolium</t>
+        </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Psychotria patens</t>
+          <t>Piper subnudispicum</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Psychotria patens</t>
+          <t>Piper subnudispicum</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Palicourea patens</t>
-        </is>
-      </c>
-      <c r="D272" t="b">
-        <v>0</v>
+          <t>Piper subnudispicum</t>
+        </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Quararibea stenophylla</t>
+          <t>Platymiscium darienense</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Quararibea stenophylla</t>
+          <t>Platymiscium darienense</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Quararibea stenophylla</t>
-        </is>
-      </c>
-      <c r="D273" t="b">
-        <v>0</v>
+          <t>Platymiscium darienense</t>
+        </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Randia armata</t>
+          <t>Pleopeltis panamensis</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Randia armata</t>
+          <t>Pleopeltis panamensis</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Randia armata</t>
-        </is>
-      </c>
-      <c r="D274" t="b">
-        <v>0</v>
+          <t>Pleopeltis panamensis</t>
+        </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Randia grandifolia</t>
+          <t>Pleurothallis crocodiliceps</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Randia grandifolia</t>
+          <t>Pleurothallis crocodiliceps</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Randia grandifolia</t>
-        </is>
-      </c>
-      <c r="D275" t="b">
-        <v>0</v>
+          <t>Pleurothallis crocodiliceps</t>
+        </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Randia lasiantha</t>
+          <t>Polybotrya polybotryoides</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Randia lasiantha</t>
+          <t>Polybotrya polybotryoides</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Randia lasiantha</t>
-        </is>
-      </c>
-      <c r="D276" t="b">
-        <v>0</v>
+          <t>Polybotrya polybotryoides</t>
+        </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Rhynchospora radicans</t>
+          <t>Polystachya lineata</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Rhynchospora radicans</t>
+          <t>Polystachya lineata</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Rhynchospora radicans</t>
-        </is>
-      </c>
-      <c r="D277" t="b">
-        <v>0</v>
+          <t>Polystachya lineata</t>
+        </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Rhynchospora radicans subsp. radicans</t>
+          <t>Pourouma bicolor</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Rhynchospora radicans subsp. radicans</t>
+          <t>Pourouma bicolor</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Rhynchospora radicans subsp. radicans</t>
-        </is>
-      </c>
-      <c r="D278" t="b">
-        <v>0</v>
+          <t>Pourouma bicolor</t>
+        </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Ronabea latifolia</t>
+          <t>Pouteria glomerata</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Ronabea latifolia</t>
+          <t>Pouteria glomerata</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Ronabea latifolia</t>
-        </is>
-      </c>
-      <c r="D279" t="b">
-        <v>0</v>
+          <t>Pouteria glomerata</t>
+        </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Rosa spinosissima</t>
+          <t>Pouteria glomerata subsp. stylosa</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Rosa spinosissima</t>
+          <t>Pouteria glomerata subsp. stylosa</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Rosa spinosissima</t>
-        </is>
-      </c>
-      <c r="D280" t="b">
-        <v>0</v>
+          <t>Pouteria glomerata subsp. stylosa</t>
+        </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Roupala montana</t>
+          <t>Prestonia seemannii</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Roupala montana</t>
+          <t>Prestonia seemannii</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Roupala montana</t>
-        </is>
-      </c>
-      <c r="D281" t="b">
-        <v>0</v>
+          <t>Prestonia seemannii</t>
+        </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Rudgea cornifolia</t>
-        </is>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>Rudgea cornifolia</t>
-        </is>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>Rudgea cornifolia</t>
-        </is>
-      </c>
-      <c r="D282" t="b">
-        <v>0</v>
+          <t>Prionostemma duplex</t>
+        </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Ruellia panamensis</t>
+          <t>Prosthechea aemula</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Ruellia panamensis</t>
+          <t>Prosthechea aemula</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Ruellia panamensis</t>
-        </is>
-      </c>
-      <c r="D283" t="b">
-        <v>0</v>
+          <t>Prosthechea aemula</t>
+        </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Ruellia terminalis</t>
+          <t>Protium glabrum</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Ruellia terminalis</t>
+          <t>Protium glabrum</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Ruellia terminalis</t>
-        </is>
-      </c>
-      <c r="D284" t="b">
-        <v>0</v>
+          <t>Protium glabrum</t>
+        </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Saccoloma elegans</t>
+          <t>Protium pittieri</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Saccoloma elegans</t>
+          <t>Protium pittieri</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Saccoloma elegans</t>
-        </is>
-      </c>
-      <c r="D285" t="b">
-        <v>0</v>
+          <t>Protium pittieri</t>
+        </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Saccoloma inaequale</t>
+          <t>Protium tenuifolium</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Saccoloma inaequale</t>
+          <t>Protium tenuifolium</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Saccoloma inaequale</t>
-        </is>
-      </c>
-      <c r="D286" t="b">
-        <v>0</v>
+          <t>Protium tenuifolium</t>
+        </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Sagittaria lancifolia subsp. lancifolia</t>
+          <t>Psychotria involucrata</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Sagittaria lancifolia subsp. lancifolia</t>
+          <t>Psychotria involucrata</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Sagittaria lancifolia subsp. lancifolia</t>
-        </is>
-      </c>
-      <c r="D287" t="b">
-        <v>0</v>
+          <t>Palicourea tenerior</t>
+        </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Sagittaria lancifolia subsp. media</t>
+          <t>Psychotria patens</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Sagittaria lancifolia subsp. media</t>
+          <t>Psychotria patens</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Sagittaria lancifolia subsp. media</t>
-        </is>
-      </c>
-      <c r="D288" t="b">
-        <v>0</v>
+          <t>Palicourea patens</t>
+        </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Sapindus saponaria</t>
+          <t>Quararibea stenophylla</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Sapindus saponaria</t>
+          <t>Quararibea stenophylla</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Sapindus saponaria</t>
-        </is>
-      </c>
-      <c r="D289" t="b">
-        <v>0</v>
+          <t>Quararibea stenophylla</t>
+        </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Sapium pachystachys</t>
+          <t>Randia armata</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Sapium pachystachys</t>
+          <t>Randia armata</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Sapium pachystachys</t>
-        </is>
-      </c>
-      <c r="D290" t="b">
-        <v>0</v>
+          <t>Randia armata</t>
+        </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Scaphyglottis livida</t>
+          <t>Randia grandifolia</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Scaphyglottis livida</t>
+          <t>Randia grandifolia</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Scaphyglottis livida</t>
-        </is>
-      </c>
-      <c r="D291" t="b">
-        <v>0</v>
+          <t>Randia grandifolia</t>
+        </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Schizachyrium condensatum</t>
+          <t>Randia lasiantha</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Schizachyrium condensatum</t>
+          <t>Randia lasiantha</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Schizachyrium condensatum</t>
-        </is>
-      </c>
-      <c r="D292" t="b">
-        <v>0</v>
+          <t>Randia lasiantha</t>
+        </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Securidaca sylvestris</t>
+          <t>Rhynchospora radicans</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Securidaca sylvestris</t>
+          <t>Rhynchospora radicans</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Securidaca sylvestris</t>
-        </is>
-      </c>
-      <c r="D293" t="b">
-        <v>0</v>
+          <t>Rhynchospora radicans</t>
+        </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Selaginella flabellata</t>
+          <t>Rhynchospora radicans subsp. radicans</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Selaginella flabellata</t>
+          <t>Rhynchospora radicans subsp. radicans</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Selaginella flabellata</t>
-        </is>
-      </c>
-      <c r="D294" t="b">
-        <v>0</v>
+          <t>Rhynchospora radicans subsp. radicans</t>
+        </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Selenicereus pteranthus</t>
+          <t>Ronabea latifolia</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Selenicereus pteranthus</t>
+          <t>Ronabea latifolia</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Selenicereus pteranthus</t>
-        </is>
-      </c>
-      <c r="D295" t="b">
-        <v>0</v>
+          <t>Ronabea latifolia</t>
+        </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Senegalia croatii</t>
+          <t>Rosa spinosissima</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Senegalia croatii</t>
+          <t>Rosa spinosissima</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Senegalia croatii</t>
-        </is>
-      </c>
-      <c r="D296" t="b">
-        <v>0</v>
+          <t>Rosa spinosissima</t>
+        </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Senegalia tenuifolia</t>
+          <t>Roupala montana</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Senegalia tenuifolia</t>
+          <t>Roupala montana</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Senegalia tenuifolia</t>
-        </is>
-      </c>
-      <c r="D297" t="b">
-        <v>0</v>
+          <t>Roupala montana</t>
+        </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Senna bacillaris var. bacillaris</t>
+          <t>Rudgea cornifolia</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Senna bacillaris var. bacillaris</t>
+          <t>Rudgea cornifolia</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Senna bacillaris var. bacillaris</t>
-        </is>
-      </c>
-      <c r="D298" t="b">
-        <v>0</v>
+          <t>Rudgea cornifolia</t>
+        </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Senna dariensis</t>
+          <t>Ruellia panamensis</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Senna dariensis</t>
+          <t>Ruellia panamensis</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Senna dariensis</t>
-        </is>
-      </c>
-      <c r="D299" t="b">
-        <v>0</v>
+          <t>Ruellia panamensis</t>
+        </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Senna dariensis var. dariensis</t>
+          <t>Ruellia terminalis</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Senna dariensis var. dariensis</t>
+          <t>Ruellia terminalis</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Senna dariensis var. dariensis</t>
-        </is>
-      </c>
-      <c r="D300" t="b">
-        <v>0</v>
+          <t>Ruellia terminalis</t>
+        </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Serjania membranacea</t>
+          <t>Saccoloma elegans</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Serjania membranacea</t>
+          <t>Saccoloma elegans</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Serjania membranacea</t>
-        </is>
-      </c>
-      <c r="D301" t="b">
-        <v>0</v>
+          <t>Saccoloma elegans</t>
+        </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Sida ulmifolia</t>
+          <t>Saccoloma inaequale</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Sida ulmifolia</t>
+          <t>Saccoloma inaequale</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Sida ulmifolia</t>
-        </is>
-      </c>
-      <c r="D302" t="b">
-        <v>0</v>
+          <t>Saccoloma inaequale</t>
+        </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Simarouba glauca</t>
+          <t>Sagittaria lancifolia subsp. lancifolia</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Simarouba glauca</t>
+          <t>Sagittaria lancifolia subsp. lancifolia</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Simarouba glauca</t>
-        </is>
-      </c>
-      <c r="D303" t="b">
-        <v>0</v>
+          <t>Sagittaria lancifolia subsp. lancifolia</t>
+        </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Sloanea meianthera</t>
+          <t>Sagittaria lancifolia subsp. media</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Sloanea meianthera</t>
+          <t>Sagittaria lancifolia subsp. media</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Sloanea meianthera</t>
-        </is>
-      </c>
-      <c r="D304" t="b">
-        <v>0</v>
+          <t>Sagittaria lancifolia subsp. media</t>
+        </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Smilax subpubescens</t>
+          <t>Sapindus saponaria</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Smilax subpubescens</t>
+          <t>Sapindus saponaria</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Smilax subpubescens</t>
-        </is>
-      </c>
-      <c r="D305" t="b">
-        <v>0</v>
+          <t>Sapindus saponaria</t>
+        </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Solanum americanum</t>
+          <t>Sapium pachystachys</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Solanum americanum</t>
+          <t>Sapium pachystachys</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Solanum americanum</t>
-        </is>
-      </c>
-      <c r="D306" t="b">
-        <v>0</v>
+          <t>Sapium pachystachys</t>
+        </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Solanum pectinatum</t>
+          <t>Scaphyglottis livida</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Solanum pectinatum</t>
+          <t>Scaphyglottis livida</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Solanum pectinatum</t>
-        </is>
-      </c>
-      <c r="D307" t="b">
-        <v>0</v>
+          <t>Scaphyglottis livida</t>
+        </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Sorocea ruminata</t>
+          <t>Schizachyrium condensatum</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Sorocea ruminata</t>
+          <t>Schizachyrium condensatum</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Sorocea ruminata</t>
-        </is>
-      </c>
-      <c r="D308" t="b">
-        <v>0</v>
+          <t>Schizachyrium condensatum</t>
+        </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Spachea correae</t>
+          <t>Securidaca sylvestris</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Spachea correae</t>
+          <t>Securidaca sylvestris</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Spachea correae</t>
-        </is>
-      </c>
-      <c r="D309" t="b">
-        <v>0</v>
+          <t>Securidaca sylvestris</t>
+        </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Spermacoce alata</t>
+          <t>Selaginella flabellata</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Spermacoce alata</t>
+          <t>Selaginella flabellata</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Spermacoce alata</t>
-        </is>
-      </c>
-      <c r="D310" t="b">
-        <v>0</v>
+          <t>Selaginella flabellata</t>
+        </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Spondias dulcis</t>
+          <t>Selenicereus pteranthus</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Spondias dulcis</t>
+          <t>Selenicereus pteranthus</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Spondias dulcis</t>
-        </is>
-      </c>
-      <c r="D311" t="b">
-        <v>0</v>
+          <t>Selenicereus pteranthus</t>
+        </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Spondias purpurea</t>
+          <t>Senegalia croatii</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Spondias purpurea</t>
+          <t>Senegalia croatii</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Spondias purpurea</t>
-        </is>
-      </c>
-      <c r="D312" t="b">
-        <v>0</v>
+          <t>Senegalia croatii</t>
+        </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Sterculia apetala</t>
+          <t>Senegalia tenuifolia</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Sterculia apetala</t>
+          <t>Senegalia tenuifolia</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Sterculia apetala</t>
-        </is>
-      </c>
-      <c r="D313" t="b">
-        <v>0</v>
+          <t>Senegalia tenuifolia</t>
+        </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Sticherus ferrugineus</t>
+          <t>Senna bacillaris var. bacillaris</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Sticherus ferrugineus</t>
+          <t>Senna bacillaris var. bacillaris</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Sticherus ferrugineus</t>
-        </is>
-      </c>
-      <c r="D314" t="b">
-        <v>0</v>
+          <t>Senna bacillaris var. bacillaris</t>
+        </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Stictocardia tiliifolia</t>
+          <t>Senna dariensis</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Stictocardia tiliifolia</t>
+          <t>Senna dariensis</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Stictocardia tiliifolia</t>
-        </is>
-      </c>
-      <c r="D315" t="b">
-        <v>0</v>
+          <t>Senna dariensis</t>
+        </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Stictocardia tiliifolia subsp. tiliifolia</t>
+          <t>Senna dariensis var. dariensis</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Stictocardia tiliifolia subsp. tiliifolia</t>
+          <t>Senna dariensis var. dariensis</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Stictocardia tiliifolia subsp. tiliifolia</t>
-        </is>
-      </c>
-      <c r="D316" t="b">
-        <v>0</v>
+          <t>Senna dariensis var. dariensis</t>
+        </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Stylogyne turbacensis</t>
+          <t>Serjania membranacea</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Stylogyne turbacensis</t>
+          <t>Serjania membranacea</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Stylogyne turbacensis</t>
-        </is>
-      </c>
-      <c r="D317" t="b">
-        <v>0</v>
+          <t>Serjania membranacea</t>
+        </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Swietenia macrophylla</t>
+          <t>Sida ulmifolia</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Swietenia macrophylla</t>
+          <t>Sida ulmifolia</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Swietenia macrophylla</t>
-        </is>
-      </c>
-      <c r="D318" t="b">
-        <v>0</v>
+          <t>Sida ulmifolia</t>
+        </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Syzygium melanostictum</t>
+          <t>Simarouba glauca</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Syzygium melanostictum</t>
+          <t>Simarouba glauca</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Syzygium melanostictum</t>
-        </is>
-      </c>
-      <c r="D319" t="b">
-        <v>0</v>
+          <t>Simarouba glauca</t>
+        </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Tabernaemontana amygdalifolia</t>
+          <t>Sloanea meianthera</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Tabernaemontana amygdalifolia</t>
+          <t>Sloanea meianthera</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Tabernaemontana amygdalifolia</t>
-        </is>
-      </c>
-      <c r="D320" t="b">
-        <v>0</v>
+          <t>Sloanea meianthera</t>
+        </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Tachigali panamensis</t>
+          <t>Smilax subpubescens</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Tachigali panamensis</t>
+          <t>Smilax subpubescens</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Tachigali panamensis</t>
-        </is>
-      </c>
-      <c r="D321" t="b">
-        <v>0</v>
+          <t>Smilax subpubescens</t>
+        </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Tamarindus indica</t>
+          <t>Solanum americanum</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Tamarindus indica</t>
+          <t>Solanum americanum</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Tamarindus indica</t>
-        </is>
-      </c>
-      <c r="D322" t="b">
-        <v>0</v>
+          <t>Solanum americanum</t>
+        </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Tapirira guianensis</t>
+          <t>Solanum pectinatum</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Tapirira guianensis</t>
+          <t>Solanum pectinatum</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Tapirira guianensis</t>
-        </is>
-      </c>
-      <c r="D323" t="b">
-        <v>0</v>
+          <t>Solanum pectinatum</t>
+        </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Tarenaya parviflora</t>
+          <t>Sorocea ruminata</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Tarenaya parviflora</t>
+          <t>Sorocea ruminata</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Cleome parviflora</t>
-        </is>
-      </c>
-      <c r="D324" t="b">
-        <v>0</v>
+          <t>Sorocea ruminata</t>
+        </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Tetracera costata</t>
+          <t>Spachea correae</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Tetracera costata</t>
+          <t>Spachea correae</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Tetracera costata</t>
-        </is>
-      </c>
-      <c r="D325" t="b">
-        <v>0</v>
+          <t>Spachea correae</t>
+        </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Tetracera costata subsp. costata</t>
+          <t>Spermacoce alata</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Tetracera costata</t>
+          <t>Spermacoce alata</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Tetracera costata</t>
-        </is>
-      </c>
-      <c r="D326" t="b">
-        <v>0</v>
+          <t>Spermacoce alata</t>
+        </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Tetracera volubilis subsp. volubilis</t>
+          <t>Spondias dulcis</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Tetracera volubilis subsp. volubilis</t>
+          <t>Spondias dulcis</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Tetracera volubilis subsp. volubilis</t>
-        </is>
-      </c>
-      <c r="D327" t="b">
-        <v>0</v>
+          <t>Spondias dulcis</t>
+        </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Tetracera willdenowiana</t>
+          <t>Spondias purpurea</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Tetracera willdenowiana</t>
+          <t>Spondias purpurea</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Tetracera willdenowiana</t>
-        </is>
-      </c>
-      <c r="D328" t="b">
-        <v>0</v>
+          <t>Spondias purpurea</t>
+        </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Thismia luetzelburgii</t>
+          <t>Sterculia apetala</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Thismia luetzelburgii</t>
+          <t>Sterculia apetala</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Thismia luetzelburgii</t>
-        </is>
-      </c>
-      <c r="D329" t="b">
-        <v>0</v>
+          <t>Sterculia apetala</t>
+        </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Tillandsia usneoides</t>
+          <t>Sticherus ferrugineus</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Tillandsia usneoides</t>
+          <t>Sticherus ferrugineus</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Tillandsia usneoides</t>
-        </is>
-      </c>
-      <c r="D330" t="b">
-        <v>0</v>
+          <t>Sticherus ferrugineus</t>
+        </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Trema domingensis</t>
+          <t>Stictocardia tiliifolia</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Trema domingense</t>
+          <t>Stictocardia tiliifolia</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Trema domingense</t>
-        </is>
-      </c>
-      <c r="D331" t="b">
-        <v>0</v>
+          <t>Stictocardia tiliifolia</t>
+        </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Trichomanes punctatum subsp. labiatum</t>
+          <t>Stictocardia tiliifolia subsp. tiliifolia</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Trichomanes punctatum subsp. labiatum</t>
+          <t>Stictocardia tiliifolia subsp. tiliifolia</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Trichomanes labiatum</t>
-        </is>
-      </c>
-      <c r="D332" t="b">
-        <v>0</v>
+          <t>Stictocardia tiliifolia subsp. tiliifolia</t>
+        </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Trichostigma octandrum</t>
+          <t>Stylogyne turbacensis</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Trichostigma octandrum</t>
+          <t>Stylogyne turbacensis</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Trichostigma octandrum</t>
-        </is>
-      </c>
-      <c r="D333" t="b">
-        <v>0</v>
+          <t>Stylogyne turbacensis</t>
+        </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Triplaris americana</t>
+          <t>Swietenia macrophylla</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Triplaris americana</t>
+          <t>Swietenia macrophylla</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Triplaris americana</t>
-        </is>
-      </c>
-      <c r="D334" t="b">
-        <v>0</v>
+          <t>Swietenia macrophylla</t>
+        </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Urena lobata</t>
+          <t>Syzygium melanostictum</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Urena lobata</t>
+          <t>Syzygium melanostictum</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Urena lobata</t>
-        </is>
-      </c>
-      <c r="D335" t="b">
-        <v>0</v>
+          <t>Syzygium melanostictum</t>
+        </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Urera caracasana</t>
+          <t>Tabernaemontana amygdalifolia</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Urera caracasana</t>
+          <t>Tabernaemontana amygdalifolia</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Urera caracasana</t>
-        </is>
-      </c>
-      <c r="D336" t="b">
-        <v>0</v>
+          <t>Tabernaemontana amygdalifolia</t>
+        </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Vachellia cornigera</t>
+          <t>Tachigali panamensis</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Vachellia cornigera</t>
+          <t>Tachigali panamensis</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Vachellia cornigera</t>
-        </is>
-      </c>
-      <c r="D337" t="b">
-        <v>0</v>
+          <t>Tachigali panamensis</t>
+        </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Vachellia farnesiana</t>
+          <t>Tamarindus indica</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Vachellia farnesiana</t>
+          <t>Tamarindus indica</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Vachellia farnesiana</t>
-        </is>
-      </c>
-      <c r="D338" t="b">
-        <v>0</v>
+          <t>Tamarindus indica</t>
+        </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Virola fosteri</t>
+          <t>Tapirira guianensis</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Virola fosteri</t>
+          <t>Tapirira guianensis</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Virola fosteri</t>
-        </is>
-      </c>
-      <c r="D339" t="b">
-        <v>0</v>
+          <t>Tapirira guianensis</t>
+        </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Vismia guianensis</t>
+          <t>Tarenaya parviflora</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Vismia guianensis</t>
+          <t>Tarenaya parviflora</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Vismia guianensis</t>
-        </is>
-      </c>
-      <c r="D340" t="b">
-        <v>0</v>
+          <t>Cleome parviflora</t>
+        </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Vismia jefensis</t>
+          <t>Tetracera costata</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Vismia jefensis</t>
+          <t>Tetracera costata</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Vismia jefensis</t>
-        </is>
-      </c>
-      <c r="D341" t="b">
-        <v>0</v>
+          <t>Tetracera costata</t>
+        </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Vismia latifolia</t>
+          <t>Tetracera costata subsp. costata</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Vismia latifolia</t>
+          <t>Tetracera costata</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Vismia latifolia</t>
-        </is>
-      </c>
-      <c r="D342" t="b">
-        <v>0</v>
+          <t>Tetracera costata</t>
+        </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Voyria flavescens</t>
+          <t>Tetracera volubilis subsp. volubilis</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Voyria flavescens</t>
+          <t>Tetracera volubilis subsp. volubilis</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Voyria flavescens</t>
-        </is>
-      </c>
-      <c r="D343" t="b">
-        <v>0</v>
+          <t>Tetracera volubilis subsp. volubilis</t>
+        </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Ziziphus strychnifolia</t>
+          <t>Tetracera willdenowiana</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Ziziphus strychnifolia</t>
+          <t>Tetracera willdenowiana</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Sarcomphalus strychnifolius</t>
-        </is>
-      </c>
-      <c r="D344" t="b">
-        <v>0</v>
+          <t>Tetracera willdenowiana</t>
+        </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Zygia latifolia</t>
+          <t>Thismia luetzelburgii</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Zygia latifolia</t>
+          <t>Thismia luetzelburgii</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Zygia latifolia</t>
-        </is>
-      </c>
-      <c r="D345" t="b">
-        <v>0</v>
+          <t>Thismia luetzelburgii</t>
+        </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
+          <t>Tillandsia usneoides</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Tillandsia usneoides</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Tillandsia usneoides</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Trema domingensis</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Trema domingense</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Trema domingense</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Trichomanes punctatum subsp. labiatum</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Trichomanes punctatum subsp. labiatum</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Trichomanes labiatum</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Trichostigma octandrum</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Trichostigma octandrum</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Trichostigma octandrum</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Triplaris americana</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Triplaris americana</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Triplaris americana</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Urena lobata</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Urena lobata</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Urena lobata</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Urera caracasana</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Urera caracasana</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Urera caracasana</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Vachellia cornigera</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Vachellia cornigera</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Vachellia cornigera</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Vachellia farnesiana</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Vachellia farnesiana</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Vachellia farnesiana</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Virola fosteri</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Virola fosteri</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Virola fosteri</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Vismia guianensis</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Vismia guianensis</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Vismia guianensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Vismia jefensis</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Vismia jefensis</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Vismia jefensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Vismia latifolia</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Vismia latifolia</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Vismia latifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Voyria flavescens</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Voyria flavescens</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Voyria flavescens</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Ziziphus strychnifolia</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Ziziphus strychnifolia</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Sarcomphalus strychnifolius</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Zygia latifolia</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Zygia latifolia</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Zygia latifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
           <t>Zygia latifolia var. latifolia</t>
         </is>
       </c>
-      <c r="B346" t="inlineStr">
+      <c r="B362" t="inlineStr">
         <is>
           <t>Zygia latifolia var. latifolia</t>
         </is>
       </c>
-      <c r="C346" t="inlineStr">
+      <c r="C362" t="inlineStr">
         <is>
           <t>Zygia latifolia var. latifolia</t>
         </is>
-      </c>
-      <c r="D346" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
